--- a/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6968 +394,6245 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.000278608830436249</v>
+        <v>0.0003340436686026997</v>
       </c>
       <c r="C2">
-        <v>0.0002721768567075159</v>
+        <v>0.0003268703599301873</v>
       </c>
       <c r="D2">
-        <v>0.0003043283955107372</v>
+        <v>0.0003533074386590401</v>
       </c>
       <c r="E2">
-        <v>0.0002856661768482448</v>
+        <v>0.000337464597446718</v>
       </c>
       <c r="F2">
-        <v>0.0005859134932471083</v>
+        <v>0.0006458448298651195</v>
       </c>
       <c r="G2">
-        <v>0.0005704031537395372</v>
+        <v>0.0006406129812128139</v>
       </c>
       <c r="H2">
-        <v>0.0007010726878425172</v>
-      </c>
-      <c r="I2">
-        <v>0.0003027570731203395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0007843190908508861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0005778973257088957</v>
+        <v>0.0007203034709678109</v>
       </c>
       <c r="C3">
-        <v>0.0004183206911038531</v>
+        <v>0.0004708278207745798</v>
       </c>
       <c r="D3">
-        <v>0.0008104171537580328</v>
+        <v>0.000842315318169902</v>
       </c>
       <c r="E3">
-        <v>0.0007388821740947837</v>
+        <v>0.0007648908531236628</v>
       </c>
       <c r="F3">
-        <v>0.0004191531485758438</v>
+        <v>0.0004494991930468962</v>
       </c>
       <c r="G3">
-        <v>0.0008252169386628755</v>
+        <v>0.0009813260422778362</v>
       </c>
       <c r="H3">
-        <v>0.0004054822799447025</v>
-      </c>
-      <c r="I3">
-        <v>0.0005186712980096615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0004392737178198613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005218967442591619</v>
+        <v>0.0006343310908269732</v>
       </c>
       <c r="C4">
-        <v>0.0003790048247099727</v>
+        <v>0.0004635980586102731</v>
       </c>
       <c r="D4">
-        <v>0.000453563547884446</v>
+        <v>0.0005186710469329786</v>
       </c>
       <c r="E4">
-        <v>0.000408431481404601</v>
+        <v>0.0004760638977594597</v>
       </c>
       <c r="F4">
-        <v>0.001476226519755995</v>
+        <v>0.001624219613370763</v>
       </c>
       <c r="G4">
-        <v>0.000619237009691746</v>
+        <v>0.0006885834958562076</v>
       </c>
       <c r="H4">
-        <v>0.0003763398687250319</v>
-      </c>
-      <c r="I4">
-        <v>0.0004108651073963982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.0004497936061431356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004209688528938706</v>
+        <v>0.0004671001631333635</v>
       </c>
       <c r="C5">
-        <v>0.0003646959116543202</v>
+        <v>0.0004367546053775068</v>
       </c>
       <c r="D5">
-        <v>0.0003312420399365075</v>
+        <v>0.0003825412975269269</v>
       </c>
       <c r="E5">
-        <v>0.0003591689698348704</v>
+        <v>0.0003975615664496975</v>
       </c>
       <c r="F5">
-        <v>0.0004565792601206498</v>
+        <v>0.0004964813937487294</v>
       </c>
       <c r="G5">
-        <v>0.0005665508851352319</v>
+        <v>0.0006425902237618686</v>
       </c>
       <c r="H5">
-        <v>0.0004944246608401911</v>
-      </c>
-      <c r="I5">
-        <v>0.000329024879765726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0005603172054942688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0002738376195427521</v>
+        <v>0.0002750881552863797</v>
       </c>
       <c r="C6">
-        <v>0.0001906430801549794</v>
+        <v>0.0002207221081384668</v>
       </c>
       <c r="D6">
-        <v>0.0001879148058114908</v>
+        <v>0.0002021257833867752</v>
       </c>
       <c r="E6">
-        <v>0.000242659318714837</v>
+        <v>0.0002420707964942393</v>
       </c>
       <c r="F6">
-        <v>0.0002292289907368865</v>
+        <v>0.0002896828905330796</v>
       </c>
       <c r="G6">
-        <v>0.0002516359384819929</v>
+        <v>0.0003187732696385209</v>
       </c>
       <c r="H6">
-        <v>0.0003943778049256024</v>
-      </c>
-      <c r="I6">
-        <v>0.0002311297417899017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.0004058751137961019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000488145598540861</v>
+        <v>0.000602080783906756</v>
       </c>
       <c r="C7">
-        <v>0.0004134961715508312</v>
+        <v>0.0004386566044806141</v>
       </c>
       <c r="D7">
-        <v>0.0005498962228398384</v>
+        <v>0.0005572873533390507</v>
       </c>
       <c r="E7">
-        <v>0.0005385997933773116</v>
+        <v>0.0005486879489754484</v>
       </c>
       <c r="F7">
-        <v>0.0004668668489565299</v>
+        <v>0.0004731642550179801</v>
       </c>
       <c r="G7">
-        <v>0.0007111775878573047</v>
+        <v>0.0008412624940115361</v>
       </c>
       <c r="H7">
-        <v>0.0004056114453489244</v>
-      </c>
-      <c r="I7">
-        <v>0.0004634621326869667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.0004881608937865638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001502114540557714</v>
+        <v>0.0001800454894745089</v>
       </c>
       <c r="C8">
-        <v>0.0001495716159814178</v>
+        <v>0.0001499914700415384</v>
       </c>
       <c r="D8">
-        <v>0.0001918369117882858</v>
+        <v>0.0002295228151858714</v>
       </c>
       <c r="E8">
-        <v>0.000143386549739836</v>
+        <v>0.0001676930811287451</v>
       </c>
       <c r="F8">
-        <v>0.0001305049764498008</v>
+        <v>0.0001343430723838156</v>
       </c>
       <c r="G8">
-        <v>0.0004592762594465654</v>
+        <v>0.0004804269475422223</v>
       </c>
       <c r="H8">
-        <v>0.0001378036742577939</v>
-      </c>
-      <c r="I8">
-        <v>0.0001935268904421439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0001423820185438165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0005090128021625469</v>
+        <v>0.0005668026528921306</v>
       </c>
       <c r="C9">
-        <v>0.0002881027870343138</v>
+        <v>0.0003445578831666811</v>
       </c>
       <c r="D9">
-        <v>0.0003181802613434842</v>
+        <v>0.0003775173462151464</v>
       </c>
       <c r="E9">
-        <v>0.0003823233281399816</v>
+        <v>0.0004363239509728317</v>
       </c>
       <c r="F9">
-        <v>0.0002663425649511171</v>
+        <v>0.000333962296499874</v>
       </c>
       <c r="G9">
-        <v>0.0005360749086862738</v>
+        <v>0.0005949860610714519</v>
       </c>
       <c r="H9">
-        <v>0.0004574561720902707</v>
-      </c>
-      <c r="I9">
-        <v>0.0002692926105938994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.0005052079707276934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0002158707799546046</v>
+        <v>0.000272918177917961</v>
       </c>
       <c r="C10">
-        <v>0.000137981592062157</v>
+        <v>0.0001717982262963266</v>
       </c>
       <c r="D10">
-        <v>0.0001347197393009883</v>
+        <v>0.0001490929434171788</v>
       </c>
       <c r="E10">
-        <v>0.0001441525673992805</v>
+        <v>0.0001480204144975118</v>
       </c>
       <c r="F10">
-        <v>0.0001383304150433541</v>
+        <v>0.0001428889424417939</v>
       </c>
       <c r="G10">
-        <v>0.0003998337401130727</v>
+        <v>0.0004160399190579924</v>
       </c>
       <c r="H10">
-        <v>0.0001248115937260093</v>
-      </c>
-      <c r="I10">
-        <v>0.0001694447729477006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0001292902985708544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0009567194232639702</v>
+        <v>0.001132733854832703</v>
       </c>
       <c r="C11">
-        <v>0.0006987817535022188</v>
+        <v>0.0008442832587484765</v>
       </c>
       <c r="D11">
-        <v>0.0008100929221967991</v>
+        <v>0.0009226664248247408</v>
       </c>
       <c r="E11">
-        <v>0.0007232490425008608</v>
+        <v>0.0008466548974357299</v>
       </c>
       <c r="F11">
-        <v>0.001946263734832807</v>
+        <v>0.00216037082358083</v>
       </c>
       <c r="G11">
-        <v>0.0006500347546045376</v>
+        <v>0.0007873319030428112</v>
       </c>
       <c r="H11">
-        <v>0.001721681652760314</v>
-      </c>
-      <c r="I11">
-        <v>0.0007067432276106139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.001940263537812562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0005900659028018083</v>
+        <v>0.0006392935431110846</v>
       </c>
       <c r="C12">
-        <v>0.0001847836210349236</v>
+        <v>0.0002321011623084716</v>
       </c>
       <c r="D12">
-        <v>0.0002445486441747429</v>
+        <v>0.0002716739774828335</v>
       </c>
       <c r="E12">
-        <v>0.0001790438821228019</v>
+        <v>0.0002114182800140913</v>
       </c>
       <c r="F12">
-        <v>0.0002041014949316924</v>
+        <v>0.0002465262500837884</v>
       </c>
       <c r="G12">
-        <v>0.0002626517564593041</v>
+        <v>0.000313220198738439</v>
       </c>
       <c r="H12">
-        <v>0.0001678746532931006</v>
-      </c>
-      <c r="I12">
-        <v>0.0001709003505992341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0001962844313481018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0007971024405631764</v>
+        <v>0.0008468805681185015</v>
       </c>
       <c r="C13">
-        <v>0.0008275354317030678</v>
+        <v>0.00101901459116591</v>
       </c>
       <c r="D13">
-        <v>0.001072086530193295</v>
+        <v>0.001122632369009351</v>
       </c>
       <c r="E13">
-        <v>0.001002690804034471</v>
+        <v>0.001050843754068398</v>
       </c>
       <c r="F13">
-        <v>0.0009674601560952333</v>
+        <v>0.001171216922428258</v>
       </c>
       <c r="G13">
-        <v>0.0009146729662453183</v>
+        <v>0.001088697559262535</v>
       </c>
       <c r="H13">
-        <v>0.0008312368994100504</v>
-      </c>
-      <c r="I13">
-        <v>0.0007374958507256466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.00090683237779987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0002582714360377695</v>
+        <v>0.0002408078770475262</v>
       </c>
       <c r="C14">
-        <v>0.000173175764402068</v>
+        <v>0.0001622365395587562</v>
       </c>
       <c r="D14">
-        <v>0.0002727568318887056</v>
+        <v>0.0002522349049324877</v>
       </c>
       <c r="E14">
-        <v>0.0002505162511250971</v>
+        <v>0.0002316962924163311</v>
       </c>
       <c r="F14">
-        <v>0.0001662392731442017</v>
+        <v>0.0001747354946331147</v>
       </c>
       <c r="G14">
-        <v>0.0005094519110979601</v>
+        <v>0.0006223059300178965</v>
       </c>
       <c r="H14">
-        <v>0.0001790740100850354</v>
-      </c>
-      <c r="I14">
-        <v>0.0003320406871338545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0001919491667522782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001459383316834183</v>
+        <v>0.000151882742708785</v>
       </c>
       <c r="C15">
-        <v>0.0001492538616994199</v>
+        <v>0.0001504302066867578</v>
       </c>
       <c r="D15">
-        <v>0.0001362357344935323</v>
+        <v>0.0001559477140693898</v>
       </c>
       <c r="E15">
-        <v>0.0001718309836055205</v>
+        <v>0.0002172045901408556</v>
       </c>
       <c r="F15">
-        <v>0.0001133049037406589</v>
+        <v>0.0001161471236714835</v>
       </c>
       <c r="G15">
-        <v>0.000366808424542488</v>
+        <v>0.0003788202179804745</v>
       </c>
       <c r="H15">
-        <v>0.0001314136976514635</v>
-      </c>
-      <c r="I15">
-        <v>0.0001678763513084076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0001588678137110821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0004407133364711394</v>
+        <v>0.0004688629007340933</v>
       </c>
       <c r="C16">
-        <v>0.0001496773124879522</v>
+        <v>0.0001881873580838622</v>
       </c>
       <c r="D16">
-        <v>0.0001719496269692312</v>
+        <v>0.0002176460906005135</v>
       </c>
       <c r="E16">
-        <v>0.0002100758518660203</v>
+        <v>0.0002339633673042532</v>
       </c>
       <c r="F16">
-        <v>0.000264291521945365</v>
+        <v>0.0002810677681631068</v>
       </c>
       <c r="G16">
-        <v>0.0001807215346244396</v>
+        <v>0.0002282884904142224</v>
       </c>
       <c r="H16">
-        <v>0.0002048425262826979</v>
-      </c>
-      <c r="I16">
-        <v>0.0001536750680619318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0002467154231112414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0003440535315743526</v>
+        <v>0.0004252672449625497</v>
       </c>
       <c r="C17">
-        <v>0.0002677577280427987</v>
+        <v>0.0003129314538580169</v>
       </c>
       <c r="D17">
-        <v>0.000321874120668179</v>
+        <v>0.0003716730645737895</v>
       </c>
       <c r="E17">
-        <v>0.0003221967678963913</v>
+        <v>0.0003682566237901374</v>
       </c>
       <c r="F17">
-        <v>0.0003822943926657072</v>
+        <v>0.0004329240499605812</v>
       </c>
       <c r="G17">
-        <v>0.0008183988853970618</v>
+        <v>0.0009158219833244198</v>
       </c>
       <c r="H17">
-        <v>0.0003579044510067022</v>
-      </c>
-      <c r="I17">
-        <v>0.000258824734886408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.000418133652739314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0002180708173733257</v>
+        <v>0.0002572023363057146</v>
       </c>
       <c r="C18">
-        <v>0.0001855395388497618</v>
+        <v>0.0002268552106771868</v>
       </c>
       <c r="D18">
-        <v>0.0001963980515075123</v>
+        <v>0.0002330031639861637</v>
       </c>
       <c r="E18">
-        <v>0.0002030633483460428</v>
+        <v>0.0002488292824026838</v>
       </c>
       <c r="F18">
-        <v>0.001117565897957146</v>
+        <v>0.001232824440103717</v>
       </c>
       <c r="G18">
-        <v>0.0002976865353824301</v>
+        <v>0.0003379401470043371</v>
       </c>
       <c r="H18">
-        <v>0.0001839769430357712</v>
-      </c>
-      <c r="I18">
-        <v>0.0002339389211691977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.0002165939423509097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001400620987635272</v>
+        <v>0.001727472047152795</v>
       </c>
       <c r="C19">
-        <v>0.0008418436900916997</v>
+        <v>0.0009365346151444187</v>
       </c>
       <c r="D19">
-        <v>0.001286582730183805</v>
+        <v>0.00126710603945443</v>
       </c>
       <c r="E19">
-        <v>0.001558834932621371</v>
+        <v>0.001561257303251701</v>
       </c>
       <c r="F19">
-        <v>0.0008947417589889227</v>
+        <v>0.0008800810550514442</v>
       </c>
       <c r="G19">
-        <v>0.000898678739776987</v>
+        <v>0.001084871314980896</v>
       </c>
       <c r="H19">
-        <v>0.0008631973778214902</v>
-      </c>
-      <c r="I19">
-        <v>0.001190882676101163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.0008640401415600643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0004673353583594122</v>
+        <v>0.0005296258396693457</v>
       </c>
       <c r="C20">
-        <v>0.0003962325546497895</v>
+        <v>0.0005031082753005333</v>
       </c>
       <c r="D20">
-        <v>0.0006327762431944797</v>
+        <v>0.0006921996886398959</v>
       </c>
       <c r="E20">
-        <v>0.0005286523737675659</v>
+        <v>0.0005847992116348068</v>
       </c>
       <c r="F20">
-        <v>0.0003816858275768266</v>
+        <v>0.0004394160820988987</v>
       </c>
       <c r="G20">
-        <v>0.001149524384551739</v>
+        <v>0.001293786208989734</v>
       </c>
       <c r="H20">
-        <v>0.0005456438585577417</v>
-      </c>
-      <c r="I20">
-        <v>0.000410780679964419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0006437491210592634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0003834546415074783</v>
+        <v>0.0004555886381188111</v>
       </c>
       <c r="C21">
-        <v>0.0003426082664181103</v>
+        <v>0.0003951046066538028</v>
       </c>
       <c r="D21">
-        <v>0.0005132430315200922</v>
+        <v>0.0006058395670137082</v>
       </c>
       <c r="E21">
-        <v>0.0004674325860597182</v>
+        <v>0.0005559590196922419</v>
       </c>
       <c r="F21">
-        <v>0.0002932617645025644</v>
+        <v>0.0003693972939797172</v>
       </c>
       <c r="G21">
-        <v>0.001058123519407184</v>
+        <v>0.001143165655536795</v>
       </c>
       <c r="H21">
-        <v>0.0004503390821580911</v>
-      </c>
-      <c r="I21">
-        <v>0.0003387623111110329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0004996285310746778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0003133342736515948</v>
+        <v>0.0003937460486398153</v>
       </c>
       <c r="C22">
-        <v>0.0002511635940119619</v>
+        <v>0.0002891686944689636</v>
       </c>
       <c r="D22">
-        <v>0.0004998359050708352</v>
+        <v>0.0005361380343043759</v>
       </c>
       <c r="E22">
-        <v>0.000449889707539168</v>
+        <v>0.0004834801174587862</v>
       </c>
       <c r="F22">
-        <v>0.0002534690523102724</v>
+        <v>0.0002907078427545578</v>
       </c>
       <c r="G22">
-        <v>0.0005710467562349217</v>
+        <v>0.0006603048894118867</v>
       </c>
       <c r="H22">
-        <v>0.000240868780610441</v>
-      </c>
-      <c r="I22">
-        <v>0.0002518031870720416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0003021529018370055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0002898533245710912</v>
+        <v>0.0003227594255782915</v>
       </c>
       <c r="C23">
-        <v>0.0001532134789148937</v>
+        <v>0.0001190324365999134</v>
       </c>
       <c r="D23">
-        <v>0.0002017976635780434</v>
+        <v>0.0001753726002445934</v>
       </c>
       <c r="E23">
-        <v>0.0001726049286458949</v>
+        <v>0.0001321959278175197</v>
       </c>
       <c r="F23">
-        <v>0.0001317536204754043</v>
+        <v>0.0001125999910101226</v>
       </c>
       <c r="G23">
-        <v>0.0002748906025414465</v>
+        <v>0.0002291816766631076</v>
       </c>
       <c r="H23">
-        <v>0.0002710552714470021</v>
-      </c>
-      <c r="I23">
-        <v>0.0004460934023598106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.000240908473155539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0005118730420218036</v>
+        <v>0.0005669120578426697</v>
       </c>
       <c r="C24">
-        <v>0.0003580604414476467</v>
+        <v>0.0004399872297008116</v>
       </c>
       <c r="D24">
-        <v>0.0004482576884109047</v>
+        <v>0.0004993263375388242</v>
       </c>
       <c r="E24">
-        <v>0.0004622863481955539</v>
+        <v>0.0005058690219267517</v>
       </c>
       <c r="F24">
-        <v>0.0003371245143436472</v>
+        <v>0.0004098850689494154</v>
       </c>
       <c r="G24">
-        <v>0.0006736257718052065</v>
+        <v>0.0007612514492063014</v>
       </c>
       <c r="H24">
-        <v>0.0005157445076150509</v>
-      </c>
-      <c r="I24">
-        <v>0.0003361049098379826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.0005889866211768534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0003153265495375475</v>
+        <v>0.0003940907860771961</v>
       </c>
       <c r="C25">
-        <v>0.0002683556575781489</v>
+        <v>0.0003241729732422367</v>
       </c>
       <c r="D25">
-        <v>0.0003386756524421253</v>
+        <v>0.0003946097691455791</v>
       </c>
       <c r="E25">
-        <v>0.0003980663557067225</v>
+        <v>0.0004553962300581101</v>
       </c>
       <c r="F25">
-        <v>0.0002940902194668276</v>
+        <v>0.000344357195765887</v>
       </c>
       <c r="G25">
-        <v>0.0007851123986575785</v>
+        <v>0.0008634352532952083</v>
       </c>
       <c r="H25">
-        <v>0.0004077436843368192</v>
-      </c>
-      <c r="I25">
-        <v>0.0002620718016385029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0004557959444124279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0005219007869841296</v>
+        <v>0.000596167606398295</v>
       </c>
       <c r="C26">
-        <v>0.0006933770740190393</v>
+        <v>0.0007712854110854861</v>
       </c>
       <c r="D26">
-        <v>0.001116830797079475</v>
+        <v>0.001230647143953411</v>
       </c>
       <c r="E26">
-        <v>0.000936529571807923</v>
+        <v>0.001032838860902512</v>
       </c>
       <c r="F26">
-        <v>0.0006127343116465604</v>
+        <v>0.000699744230929249</v>
       </c>
       <c r="G26">
-        <v>0.0006766435616966957</v>
+        <v>0.0007531736608600456</v>
       </c>
       <c r="H26">
-        <v>0.000654665021129671</v>
-      </c>
-      <c r="I26">
-        <v>0.0005794363896495413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.0007991402412702671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0002923579478740392</v>
+        <v>0.0003475115366183739</v>
       </c>
       <c r="C27">
-        <v>0.0003285222512773101</v>
+        <v>0.0003559204747723816</v>
       </c>
       <c r="D27">
-        <v>0.0004315121023876976</v>
+        <v>0.0004957999935749425</v>
       </c>
       <c r="E27">
-        <v>0.0003564823700001803</v>
+        <v>0.0004126311002917881</v>
       </c>
       <c r="F27">
-        <v>0.0002597730933512382</v>
+        <v>0.000320165868761983</v>
       </c>
       <c r="G27">
-        <v>0.0003958653762855886</v>
+        <v>0.000429952160418822</v>
       </c>
       <c r="H27">
-        <v>0.0002712281062094103</v>
-      </c>
-      <c r="I27">
-        <v>0.0002413082010243158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.0002973969095274235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001166304364808297</v>
+        <v>0.001295617130920445</v>
       </c>
       <c r="C28">
-        <v>0.001602479253466076</v>
+        <v>0.001835487001542107</v>
       </c>
       <c r="D28">
-        <v>0.001104580865530929</v>
+        <v>0.001247646102549338</v>
       </c>
       <c r="E28">
-        <v>0.001021637483739108</v>
+        <v>0.001149327896555931</v>
       </c>
       <c r="F28">
-        <v>0.001506631480969244</v>
+        <v>0.001770925526059821</v>
       </c>
       <c r="G28">
-        <v>0.000894348153174821</v>
+        <v>0.001069079672836497</v>
       </c>
       <c r="H28">
-        <v>0.0008004647560786847</v>
-      </c>
-      <c r="I28">
-        <v>0.000729954003968752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.0009854151234688078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0004141695971063932</v>
+        <v>0.0005058382015951615</v>
       </c>
       <c r="C29">
-        <v>0.0002696041962945785</v>
+        <v>0.0003244074236047873</v>
       </c>
       <c r="D29">
-        <v>0.0003002412189827807</v>
+        <v>0.0003165529870665517</v>
       </c>
       <c r="E29">
-        <v>0.0003428483643893315</v>
+        <v>0.000357650405936057</v>
       </c>
       <c r="F29">
-        <v>0.0003821068910350139</v>
+        <v>0.0003958380147664732</v>
       </c>
       <c r="G29">
-        <v>0.0003062243033907768</v>
+        <v>0.0003295221385031284</v>
       </c>
       <c r="H29">
-        <v>0.0004882171394336899</v>
-      </c>
-      <c r="I29">
-        <v>0.0002906565115438524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0005798067001309431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0006092738682270736</v>
+        <v>0.0007504358718625321</v>
       </c>
       <c r="C30">
-        <v>0.0004508137221362736</v>
+        <v>0.0005381585943007456</v>
       </c>
       <c r="D30">
-        <v>0.0006694100282164745</v>
+        <v>0.0006697112689838412</v>
       </c>
       <c r="E30">
-        <v>0.0006580479079153587</v>
+        <v>0.0006566148808820999</v>
       </c>
       <c r="F30">
-        <v>0.0005252375517566765</v>
+        <v>0.0005249279295608547</v>
       </c>
       <c r="G30">
-        <v>0.0005347654328626649</v>
+        <v>0.0006730038147649029</v>
       </c>
       <c r="H30">
-        <v>0.0004503027012811546</v>
-      </c>
-      <c r="I30">
-        <v>0.0005246625290205147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.0004702070024116125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0004455846463088059</v>
+        <v>0.000547673593123296</v>
       </c>
       <c r="C31">
-        <v>0.0003359313810213687</v>
+        <v>0.0003782860626680486</v>
       </c>
       <c r="D31">
-        <v>0.0004417500722375189</v>
+        <v>0.0004588322488041828</v>
       </c>
       <c r="E31">
-        <v>0.0003913573183122886</v>
+        <v>0.0004091101238708129</v>
       </c>
       <c r="F31">
-        <v>0.001057324744451605</v>
+        <v>0.001202657014647451</v>
       </c>
       <c r="G31">
-        <v>0.0004438209404993901</v>
+        <v>0.0004556145741480038</v>
       </c>
       <c r="H31">
-        <v>0.0003223130581898732</v>
-      </c>
-      <c r="I31">
-        <v>0.0004255622714749158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0003729318050768907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0002065085068877711</v>
+        <v>0.0002376185590195599</v>
       </c>
       <c r="C32">
-        <v>0.0001908293741641678</v>
+        <v>0.0002144566368133032</v>
       </c>
       <c r="D32">
-        <v>0.0001903765235453221</v>
+        <v>0.0002331562408958009</v>
       </c>
       <c r="E32">
-        <v>0.0003744731092191346</v>
+        <v>0.0004333822788537177</v>
       </c>
       <c r="F32">
-        <v>0.0001198321146016137</v>
+        <v>0.0001470094085698701</v>
       </c>
       <c r="G32">
-        <v>0.0001732066626473529</v>
+        <v>0.0002137571318878923</v>
       </c>
       <c r="H32">
-        <v>0.0004252569566645827</v>
-      </c>
-      <c r="I32">
-        <v>0.0001482536059445054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0004661482149865415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0003889485906397274</v>
+        <v>0.0004695556456846847</v>
       </c>
       <c r="C33">
-        <v>0.0003345774429923703</v>
+        <v>0.0004001883909349496</v>
       </c>
       <c r="D33">
-        <v>0.0003594631980030878</v>
+        <v>0.0004140195128986161</v>
       </c>
       <c r="E33">
-        <v>0.0003813695262447408</v>
+        <v>0.0004604126573380498</v>
       </c>
       <c r="F33">
-        <v>0.0009119078979037298</v>
+        <v>0.0009852994255603695</v>
       </c>
       <c r="G33">
-        <v>0.0004455288352469435</v>
+        <v>0.0004993818384049858</v>
       </c>
       <c r="H33">
-        <v>0.0006350607873388356</v>
-      </c>
-      <c r="I33">
-        <v>0.0003357096868994303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.0007341751219097359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0003147948899201127</v>
+        <v>0.000368682279653633</v>
       </c>
       <c r="C34">
-        <v>0.0003094246717471709</v>
+        <v>0.0003391455137797647</v>
       </c>
       <c r="D34">
-        <v>0.0003466830350871326</v>
+        <v>0.0004357672636998143</v>
       </c>
       <c r="E34">
-        <v>0.000275669477865489</v>
+        <v>0.0003227597981172309</v>
       </c>
       <c r="F34">
-        <v>0.0003353882371379527</v>
+        <v>0.0004137819715624091</v>
       </c>
       <c r="G34">
-        <v>0.0009828719427111895</v>
+        <v>0.001038130376850276</v>
       </c>
       <c r="H34">
-        <v>0.0003461110458862715</v>
-      </c>
-      <c r="I34">
-        <v>0.0003187069974081689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0003731892646404121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0004200878746349453</v>
+        <v>0.0004823223017409183</v>
       </c>
       <c r="C35">
-        <v>0.0003482557049453804</v>
+        <v>0.0004222499911463556</v>
       </c>
       <c r="D35">
-        <v>0.0004936126614894799</v>
+        <v>0.0005517531283095758</v>
       </c>
       <c r="E35">
-        <v>0.0004352340684745302</v>
+        <v>0.0004913491554152246</v>
       </c>
       <c r="F35">
-        <v>0.0003133614822381815</v>
+        <v>0.0003869279456879418</v>
       </c>
       <c r="G35">
-        <v>0.0009124295276204851</v>
+        <v>0.001013546011651877</v>
       </c>
       <c r="H35">
-        <v>0.0004418063277293402</v>
-      </c>
-      <c r="I35">
-        <v>0.0003256167443826439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.0005107966236837672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0002836369764841458</v>
+        <v>0.0003458210752821364</v>
       </c>
       <c r="C36">
-        <v>0.0003805273823268583</v>
+        <v>0.0004331609575651219</v>
       </c>
       <c r="D36">
-        <v>0.0003829509327750674</v>
+        <v>0.0004250016830953505</v>
       </c>
       <c r="E36">
-        <v>0.0004827659822422181</v>
+        <v>0.0005315532093079125</v>
       </c>
       <c r="F36">
-        <v>0.0004214462369821497</v>
+        <v>0.0004768491250026553</v>
       </c>
       <c r="G36">
-        <v>0.0002592218585654781</v>
+        <v>0.0003120844106658254</v>
       </c>
       <c r="H36">
-        <v>0.000260051831755074</v>
-      </c>
-      <c r="I36">
-        <v>0.0002434290787202411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0003034510887941405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0008997507341209178</v>
+        <v>0.001056301433374963</v>
       </c>
       <c r="C37">
-        <v>0.000602594115463226</v>
+        <v>0.000749105076840165</v>
       </c>
       <c r="D37">
-        <v>0.0009468383705299202</v>
+        <v>0.0009797815342321985</v>
       </c>
       <c r="E37">
-        <v>0.0009359704054089552</v>
+        <v>0.0009695419479736622</v>
       </c>
       <c r="F37">
-        <v>0.0006118021504396232</v>
+        <v>0.0007195336823018731</v>
       </c>
       <c r="G37">
-        <v>0.0007551950206079315</v>
+        <v>0.000895485844467842</v>
       </c>
       <c r="H37">
-        <v>0.0007268022649305711</v>
-      </c>
-      <c r="I37">
-        <v>0.0006408245266761187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.0007733958530657553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0005865068242222628</v>
+        <v>0.0007447062538437324</v>
       </c>
       <c r="C38">
-        <v>0.0005309936629789835</v>
+        <v>0.0005976688657510303</v>
       </c>
       <c r="D38">
-        <v>0.0009753210419034099</v>
+        <v>0.0009849186361111342</v>
       </c>
       <c r="E38">
-        <v>0.001049548831284716</v>
+        <v>0.00106673129629218</v>
       </c>
       <c r="F38">
-        <v>0.0005466353712323748</v>
+        <v>0.0006304420531587287</v>
       </c>
       <c r="G38">
-        <v>0.0006887459691709919</v>
+        <v>0.0008441187556183834</v>
       </c>
       <c r="H38">
-        <v>0.0006653361406124789</v>
-      </c>
-      <c r="I38">
-        <v>0.0006667184820731166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0006882475333902288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0004654908667810201</v>
+        <v>0.0005841682543588643</v>
       </c>
       <c r="C39">
-        <v>0.0005122079523579075</v>
+        <v>0.0006431578442478298</v>
       </c>
       <c r="D39">
-        <v>0.0009651643760143595</v>
+        <v>0.001024323317985135</v>
       </c>
       <c r="E39">
-        <v>0.0008861324230134687</v>
+        <v>0.0009404726754438363</v>
       </c>
       <c r="F39">
-        <v>0.0006491211774792118</v>
+        <v>0.0008070226293397392</v>
       </c>
       <c r="G39">
-        <v>0.0004738327802911368</v>
+        <v>0.0005933713951311198</v>
       </c>
       <c r="H39">
-        <v>0.0007765390767835107</v>
-      </c>
-      <c r="I39">
-        <v>0.0004419372880342247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0008502721889983767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0002318534010240962</v>
+        <v>0.0002939161520465349</v>
       </c>
       <c r="C40">
-        <v>0.0002957782469627186</v>
+        <v>0.0003444880044772512</v>
       </c>
       <c r="D40">
-        <v>0.0004642023886642018</v>
+        <v>0.0005093182567833163</v>
       </c>
       <c r="E40">
-        <v>0.000462447640585053</v>
+        <v>0.0005064019314830038</v>
       </c>
       <c r="F40">
-        <v>0.000367963670217599</v>
+        <v>0.0004178596346382519</v>
       </c>
       <c r="G40">
-        <v>0.0002186979195030309</v>
+        <v>0.0002776477227439136</v>
       </c>
       <c r="H40">
-        <v>0.0001898095157045939</v>
-      </c>
-      <c r="I40">
-        <v>0.0001934545807310704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0002372002064178761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003381066424282569</v>
+        <v>0.0003959313806867113</v>
       </c>
       <c r="C41">
-        <v>0.0002027804551406243</v>
+        <v>0.0002572123441756044</v>
       </c>
       <c r="D41">
-        <v>0.0003685886944820311</v>
+        <v>0.000401403158504606</v>
       </c>
       <c r="E41">
-        <v>0.0003285819946666523</v>
+        <v>0.0003611332714656517</v>
       </c>
       <c r="F41">
-        <v>0.0002126211144820111</v>
+        <v>0.0002378509634915487</v>
       </c>
       <c r="G41">
-        <v>0.000547468525719318</v>
+        <v>0.0006192464554041264</v>
       </c>
       <c r="H41">
-        <v>0.0002052259512320784</v>
-      </c>
-      <c r="I41">
-        <v>0.000213143406821764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.0002542901355702074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0005236156994956594</v>
+        <v>0.0006593065914079515</v>
       </c>
       <c r="C42">
-        <v>0.0005391819861567185</v>
+        <v>0.0006637853404620231</v>
       </c>
       <c r="D42">
-        <v>0.0009020733561952308</v>
+        <v>0.000919282491684587</v>
       </c>
       <c r="E42">
-        <v>0.0008652149151946325</v>
+        <v>0.000874871707837371</v>
       </c>
       <c r="F42">
-        <v>0.0005639963112189924</v>
+        <v>0.0007011037707458171</v>
       </c>
       <c r="G42">
-        <v>0.0005202756091922232</v>
+        <v>0.0006526960893159989</v>
       </c>
       <c r="H42">
-        <v>0.0008481229417099422</v>
-      </c>
-      <c r="I42">
-        <v>0.0005522692437917478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.0008748109800231974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.000402901564139772</v>
+        <v>0.00041576991880366</v>
       </c>
       <c r="C43">
-        <v>0.0003101890969088571</v>
+        <v>0.0003180395741583382</v>
       </c>
       <c r="D43">
-        <v>0.00038986629907301</v>
+        <v>0.0004815164385114688</v>
       </c>
       <c r="E43">
-        <v>0.0003327499828531286</v>
+        <v>0.0004192065162033111</v>
       </c>
       <c r="F43">
-        <v>0.0002541034457283201</v>
+        <v>0.0002958486405716379</v>
       </c>
       <c r="G43">
-        <v>0.0006527264682994557</v>
+        <v>0.0006802547288341749</v>
       </c>
       <c r="H43">
-        <v>0.0002482325777193489</v>
-      </c>
-      <c r="I43">
-        <v>0.0003053898779044683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0002911937734835575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0002577666516156517</v>
+        <v>0.0003004505666197711</v>
       </c>
       <c r="C44">
-        <v>0.0002223142092005461</v>
+        <v>0.0002471272451729706</v>
       </c>
       <c r="D44">
-        <v>0.0003486763399761363</v>
+        <v>0.0004049446216743776</v>
       </c>
       <c r="E44">
-        <v>0.0002960026706227129</v>
+        <v>0.0003472347775561984</v>
       </c>
       <c r="F44">
-        <v>0.0001912713733966776</v>
+        <v>0.0002375538045624827</v>
       </c>
       <c r="G44">
-        <v>0.000576394017445901</v>
+        <v>0.0006166794346694008</v>
       </c>
       <c r="H44">
-        <v>0.0002383831607652423</v>
-      </c>
-      <c r="I44">
-        <v>0.0002290824610314696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0002607005840623058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0002766120323792421</v>
+        <v>0.0003429026254404838</v>
       </c>
       <c r="C45">
-        <v>0.0002247816460077313</v>
+        <v>0.0002837247829661343</v>
       </c>
       <c r="D45">
-        <v>0.0003045111979389492</v>
+        <v>0.0003437398657177231</v>
       </c>
       <c r="E45">
-        <v>0.0002716290388378356</v>
+        <v>0.0003157216458577041</v>
       </c>
       <c r="F45">
-        <v>0.0008059592934593813</v>
+        <v>0.0008934990804741987</v>
       </c>
       <c r="G45">
-        <v>0.000406565574890531</v>
+        <v>0.0004526765112767328</v>
       </c>
       <c r="H45">
-        <v>0.000243486084005017</v>
-      </c>
-      <c r="I45">
-        <v>0.000226411635735658</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0002971864903323989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0007554098657091813</v>
+        <v>0.0009315765136254648</v>
       </c>
       <c r="C46">
-        <v>0.0006304982486833137</v>
+        <v>0.000679295317956217</v>
       </c>
       <c r="D46">
-        <v>0.0008625602292427597</v>
+        <v>0.0008482017687365439</v>
       </c>
       <c r="E46">
-        <v>0.0007797604984667745</v>
+        <v>0.0007741646271818581</v>
       </c>
       <c r="F46">
-        <v>0.001208649232608739</v>
+        <v>0.001229490900162949</v>
       </c>
       <c r="G46">
-        <v>0.0007063196495641608</v>
+        <v>0.0008434279027313641</v>
       </c>
       <c r="H46">
-        <v>0.0005914558518113585</v>
-      </c>
-      <c r="I46">
-        <v>0.0007989594579482686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0007069237353315065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.139888345819921E-05</v>
+        <v>6.9346983873996E-05</v>
       </c>
       <c r="C47">
-        <v>5.740507772363123E-05</v>
+        <v>5.210104817440288E-05</v>
       </c>
       <c r="D47">
-        <v>0.0001450948463434634</v>
+        <v>0.0001800671528636971</v>
       </c>
       <c r="E47">
-        <v>6.993308996885045E-05</v>
+        <v>6.454508044438154E-05</v>
       </c>
       <c r="F47">
-        <v>6.26156556536695E-05</v>
+        <v>6.282455331026679E-05</v>
       </c>
       <c r="G47">
-        <v>7.540384979801811E-05</v>
+        <v>6.552709348887475E-05</v>
       </c>
       <c r="H47">
-        <v>5.585573538771265E-05</v>
-      </c>
-      <c r="I47">
-        <v>0.0001085456175993856</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>5.051190097260164E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0003777364154630069</v>
+        <v>0.0004327200682094455</v>
       </c>
       <c r="C48">
-        <v>0.0002384502907646389</v>
+        <v>0.0002877249057623733</v>
       </c>
       <c r="D48">
-        <v>0.0003763180507475042</v>
+        <v>0.0004188623073149419</v>
       </c>
       <c r="E48">
-        <v>0.0003651222749470798</v>
+        <v>0.0004072946772082174</v>
       </c>
       <c r="F48">
-        <v>0.0003139859863876198</v>
+        <v>0.0003523197801980332</v>
       </c>
       <c r="G48">
-        <v>0.0005774592230694778</v>
+        <v>0.0006513454870282137</v>
       </c>
       <c r="H48">
-        <v>0.0002216516204744645</v>
-      </c>
-      <c r="I48">
-        <v>0.0002447022187415184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0002761935196829991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0004723448950949361</v>
+        <v>0.0005367507847719043</v>
       </c>
       <c r="C49">
-        <v>0.0004018466208456878</v>
+        <v>0.0004891623385604545</v>
       </c>
       <c r="D49">
-        <v>0.0005677160068274853</v>
+        <v>0.0006182961076355836</v>
       </c>
       <c r="E49">
-        <v>0.000607337459017193</v>
+        <v>0.0006626797408410973</v>
       </c>
       <c r="F49">
-        <v>0.0003659401230352772</v>
+        <v>0.0004360729420325126</v>
       </c>
       <c r="G49">
-        <v>0.0008958738108757044</v>
+        <v>0.001015514973341186</v>
       </c>
       <c r="H49">
-        <v>0.0003981256828209126</v>
-      </c>
-      <c r="I49">
-        <v>0.0003692539135827575</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.0004823536171484702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0005049894167321724</v>
+        <v>0.0006190067136496966</v>
       </c>
       <c r="C50">
-        <v>0.0004830761640375522</v>
+        <v>0.0005823196377164004</v>
       </c>
       <c r="D50">
-        <v>0.0007332242110937652</v>
+        <v>0.0008001283491705293</v>
       </c>
       <c r="E50">
-        <v>0.0007319432461292345</v>
+        <v>0.0007974597057042817</v>
       </c>
       <c r="F50">
-        <v>0.0005120880498645651</v>
+        <v>0.0005803219304091892</v>
       </c>
       <c r="G50">
-        <v>0.0009841933678527057</v>
+        <v>0.001118586899025167</v>
       </c>
       <c r="H50">
-        <v>0.0005159120938200251</v>
-      </c>
-      <c r="I50">
-        <v>0.0004399093774169561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.0006135207111253669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0003272063012986201</v>
+        <v>0.0003716762195132192</v>
       </c>
       <c r="C51">
-        <v>0.0004589521577175342</v>
+        <v>0.0004912168907481621</v>
       </c>
       <c r="D51">
-        <v>0.0005781400832213091</v>
+        <v>0.0006810160788893327</v>
       </c>
       <c r="E51">
-        <v>0.0005524071087575041</v>
+        <v>0.0006509975459647995</v>
       </c>
       <c r="F51">
-        <v>0.0003389757973180954</v>
+        <v>0.0003822241800749767</v>
       </c>
       <c r="G51">
-        <v>0.0008387011341073209</v>
+        <v>0.0008976921784854568</v>
       </c>
       <c r="H51">
-        <v>0.0003232802440722212</v>
-      </c>
-      <c r="I51">
-        <v>0.0003839920011187447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0003771384209331528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0003217607620542678</v>
+        <v>0.0003522148455152852</v>
       </c>
       <c r="C52">
-        <v>0.0002292741249274592</v>
+        <v>0.0002551752474034992</v>
       </c>
       <c r="D52">
-        <v>0.0004432519729025064</v>
+        <v>0.0005133742185427978</v>
       </c>
       <c r="E52">
-        <v>0.0003987114663208146</v>
+        <v>0.0004623284049879503</v>
       </c>
       <c r="F52">
-        <v>0.0001947544722692589</v>
+        <v>0.0002260442274365371</v>
       </c>
       <c r="G52">
-        <v>0.0004879505102356492</v>
+        <v>0.0005221747293066311</v>
       </c>
       <c r="H52">
-        <v>0.0002165938953478041</v>
-      </c>
-      <c r="I52">
-        <v>0.0002537184309764701</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0002571462219387363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.001291198579341734</v>
+        <v>0.001418891691590129</v>
       </c>
       <c r="C53">
-        <v>0.0007807375304104514</v>
+        <v>0.0009888604060400562</v>
       </c>
       <c r="D53">
-        <v>0.0007951016405783615</v>
+        <v>0.0009991529387109496</v>
       </c>
       <c r="E53">
-        <v>0.0009240705196184658</v>
+        <v>0.001103950557099852</v>
       </c>
       <c r="F53">
-        <v>0.002045228483924666</v>
+        <v>0.002301444964195263</v>
       </c>
       <c r="G53">
-        <v>0.0009544321165989878</v>
+        <v>0.001101212993903428</v>
       </c>
       <c r="H53">
-        <v>0.001362629092567603</v>
-      </c>
-      <c r="I53">
-        <v>0.0007407676848805153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.001498567858906128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.001226511325534096</v>
+        <v>0.0012728885230982</v>
       </c>
       <c r="C54">
-        <v>0.0008469674597984066</v>
+        <v>0.0008634332147196834</v>
       </c>
       <c r="D54">
-        <v>0.0006529071356222559</v>
+        <v>0.0008114089968564735</v>
       </c>
       <c r="E54">
-        <v>0.0005469357631926607</v>
+        <v>0.0006916246270558887</v>
       </c>
       <c r="F54">
-        <v>0.0005010084723064281</v>
+        <v>0.0005718313769152578</v>
       </c>
       <c r="G54">
-        <v>0.0005319713973830642</v>
+        <v>0.0005573098403376955</v>
       </c>
       <c r="H54">
-        <v>0.0005146373535515967</v>
-      </c>
-      <c r="I54">
-        <v>0.0006065669310345295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.0005826430009595052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0004385732944005117</v>
+        <v>0.000446150428290795</v>
       </c>
       <c r="C55">
-        <v>0.0005357734702223365</v>
+        <v>0.0006395500409098709</v>
       </c>
       <c r="D55">
-        <v>0.0004364893695026905</v>
+        <v>0.0004452947479441733</v>
       </c>
       <c r="E55">
-        <v>0.000424214857731739</v>
+        <v>0.0004376827256239094</v>
       </c>
       <c r="F55">
-        <v>0.0004790432796405907</v>
+        <v>0.0005873043875075238</v>
       </c>
       <c r="G55">
-        <v>0.0004641436547032544</v>
+        <v>0.0005556456294079693</v>
       </c>
       <c r="H55">
-        <v>0.0007349038074966372</v>
-      </c>
-      <c r="I55">
-        <v>0.0004716538797224517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0007502591129762309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0003731509865132886</v>
+        <v>0.0004491670443747465</v>
       </c>
       <c r="C56">
-        <v>0.0003835266924125146</v>
+        <v>0.0004662501822838254</v>
       </c>
       <c r="D56">
-        <v>0.0006048111500029342</v>
+        <v>0.0006543929443720863</v>
       </c>
       <c r="E56">
-        <v>0.0006187781920116604</v>
+        <v>0.0006660454724312119</v>
       </c>
       <c r="F56">
-        <v>0.0003952018842687454</v>
+        <v>0.0004469147247774673</v>
       </c>
       <c r="G56">
-        <v>0.0007035460960507886</v>
+        <v>0.000804705840232979</v>
       </c>
       <c r="H56">
-        <v>0.0003681144594782165</v>
-      </c>
-      <c r="I56">
-        <v>0.0003485093298662977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.000446953739474389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0003674401096105593</v>
+        <v>0.0004601620767899728</v>
       </c>
       <c r="C57">
-        <v>0.0003068725539412988</v>
+        <v>0.0003692750578693798</v>
       </c>
       <c r="D57">
-        <v>0.0003523766860049427</v>
+        <v>0.0004037298750882832</v>
       </c>
       <c r="E57">
-        <v>0.0003128208848045928</v>
+        <v>0.0003775358224041937</v>
       </c>
       <c r="F57">
-        <v>0.001035443172211976</v>
+        <v>0.001113506835395549</v>
       </c>
       <c r="G57">
-        <v>0.0003890010655403249</v>
+        <v>0.0004348794533314709</v>
       </c>
       <c r="H57">
-        <v>0.0006665948684498908</v>
-      </c>
-      <c r="I57">
-        <v>0.0003276139732178257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.0007808200356406957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0003095240410417624</v>
+        <v>0.000381703467577476</v>
       </c>
       <c r="C58">
-        <v>0.0003247972070134028</v>
+        <v>0.0003818312303321714</v>
       </c>
       <c r="D58">
-        <v>0.0004051805691335496</v>
+        <v>0.000453434793418026</v>
       </c>
       <c r="E58">
-        <v>0.000491285390091342</v>
+        <v>0.0005502474924598923</v>
       </c>
       <c r="F58">
-        <v>0.000261894392762782</v>
+        <v>0.0003126163877551341</v>
       </c>
       <c r="G58">
-        <v>0.0007316018760551241</v>
+        <v>0.0008208475474396544</v>
       </c>
       <c r="H58">
-        <v>0.0002411809248507677</v>
-      </c>
-      <c r="I58">
-        <v>0.000250352996357467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.0002928473345394453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.000462567101414041</v>
+        <v>0.0004694832060095739</v>
       </c>
       <c r="C59">
-        <v>0.0002253209162952411</v>
+        <v>0.0002631800207531222</v>
       </c>
       <c r="D59">
-        <v>0.0002728055292794498</v>
+        <v>0.0003126137178100782</v>
       </c>
       <c r="E59">
-        <v>0.0002551302915315465</v>
+        <v>0.0002758416866432753</v>
       </c>
       <c r="F59">
-        <v>0.0003479523989945758</v>
+        <v>0.0004341879528159233</v>
       </c>
       <c r="G59">
-        <v>0.0006569399833901784</v>
+        <v>0.0006768311018866982</v>
       </c>
       <c r="H59">
-        <v>0.0002148912263197712</v>
-      </c>
-      <c r="I59">
-        <v>0.0003349633008299397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0002351268117228188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0004350928951963782</v>
+        <v>0.000520240744131953</v>
       </c>
       <c r="C60">
-        <v>0.0004115316479953917</v>
+        <v>0.0005052590341510596</v>
       </c>
       <c r="D60">
-        <v>0.000508657915114496</v>
+        <v>0.0005525225973349865</v>
       </c>
       <c r="E60">
-        <v>0.0005229765163388834</v>
+        <v>0.0005661715980734885</v>
       </c>
       <c r="F60">
-        <v>0.0005029877233410965</v>
+        <v>0.0005503660031608686</v>
       </c>
       <c r="G60">
-        <v>0.0007680554624846464</v>
+        <v>0.0008723837925224902</v>
       </c>
       <c r="H60">
-        <v>0.000521482173430309</v>
-      </c>
-      <c r="I60">
-        <v>0.0003830696340635957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.0006075862494762072</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0002534030154060349</v>
+        <v>0.0003038076906637377</v>
       </c>
       <c r="C61">
-        <v>0.0002053563844758469</v>
+        <v>0.000233965721173361</v>
       </c>
       <c r="D61">
-        <v>0.0003223031951821255</v>
+        <v>0.0003383314058590235</v>
       </c>
       <c r="E61">
-        <v>0.0002854118072328932</v>
+        <v>0.0003030759636346739</v>
       </c>
       <c r="F61">
-        <v>0.0003139365505425594</v>
+        <v>0.0003411350145816815</v>
       </c>
       <c r="G61">
-        <v>0.0006530929272282724</v>
+        <v>0.0007531538076130635</v>
       </c>
       <c r="H61">
-        <v>0.0002448172388661503</v>
-      </c>
-      <c r="I61">
-        <v>0.000247040091834008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.0003057220850873098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0006231172627809852</v>
+        <v>0.0007233528346370228</v>
       </c>
       <c r="C62">
-        <v>0.0004816024063937453</v>
+        <v>0.0005260801872586357</v>
       </c>
       <c r="D62">
-        <v>0.0003969928717088746</v>
+        <v>0.0004795932409959791</v>
       </c>
       <c r="E62">
-        <v>0.0003013475569917608</v>
+        <v>0.000376489953531523</v>
       </c>
       <c r="F62">
-        <v>0.0009512597769971555</v>
+        <v>0.001022568620079395</v>
       </c>
       <c r="G62">
-        <v>0.0003586442256038861</v>
+        <v>0.0003980472763411536</v>
       </c>
       <c r="H62">
-        <v>0.0003710740650666537</v>
-      </c>
-      <c r="I62">
-        <v>0.0003404473213811468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0004653987423824582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.002158153361059132</v>
+        <v>0.002469748427878131</v>
       </c>
       <c r="C63">
-        <v>0.0007992094474255793</v>
+        <v>0.0009406987619090775</v>
       </c>
       <c r="D63">
-        <v>0.0009354446101418446</v>
+        <v>0.001073353143645641</v>
       </c>
       <c r="E63">
-        <v>0.0008913387806347865</v>
+        <v>0.001009494699476556</v>
       </c>
       <c r="F63">
-        <v>0.001752378883337969</v>
+        <v>0.001971300701136898</v>
       </c>
       <c r="G63">
-        <v>0.0006987761371138486</v>
+        <v>0.0008844752495301051</v>
       </c>
       <c r="H63">
-        <v>0.00143317746499525</v>
-      </c>
-      <c r="I63">
-        <v>0.0007618899539147792</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.00169020696746742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0003645040685033208</v>
+        <v>0.0004370003572410493</v>
       </c>
       <c r="C64">
-        <v>0.0004007104031705319</v>
+        <v>0.0004760030217588488</v>
       </c>
       <c r="D64">
-        <v>0.0004675687843158648</v>
+        <v>0.0005427520097440134</v>
       </c>
       <c r="E64">
-        <v>0.0004318734215989616</v>
+        <v>0.000510593932470358</v>
       </c>
       <c r="F64">
-        <v>0.001325751242697274</v>
+        <v>0.001444300389558374</v>
       </c>
       <c r="G64">
-        <v>0.0004482652945484841</v>
+        <v>0.0005155912359803035</v>
       </c>
       <c r="H64">
-        <v>0.0006107180977732303</v>
-      </c>
-      <c r="I64">
-        <v>0.0004074576990561768</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0006980533713243173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0003155711915379557</v>
+        <v>0.0003569376755314277</v>
       </c>
       <c r="C65">
-        <v>0.0002172454907335024</v>
+        <v>0.0002149921792161972</v>
       </c>
       <c r="D65">
-        <v>0.0002621362943496497</v>
+        <v>0.0002501691439958584</v>
       </c>
       <c r="E65">
-        <v>0.0002824494776259347</v>
+        <v>0.0003114966123038232</v>
       </c>
       <c r="F65">
-        <v>0.000322845281195326</v>
+        <v>0.0003233644578627548</v>
       </c>
       <c r="G65">
-        <v>0.000311501017479134</v>
+        <v>0.0003013757643583461</v>
       </c>
       <c r="H65">
-        <v>0.0007290204908949016</v>
-      </c>
-      <c r="I65">
-        <v>0.0004632261294800193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.0007526229244076365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001041561578888944</v>
+        <v>0.001228784730729143</v>
       </c>
       <c r="C66">
-        <v>0.0007463305674692641</v>
+        <v>0.0009035666107315665</v>
       </c>
       <c r="D66">
-        <v>0.001082334823722006</v>
+        <v>0.00112696772468195</v>
       </c>
       <c r="E66">
-        <v>0.001157681792320776</v>
+        <v>0.001209110774181516</v>
       </c>
       <c r="F66">
-        <v>0.001119834226496102</v>
+        <v>0.001166897198214208</v>
       </c>
       <c r="G66">
-        <v>0.0009517596791050745</v>
+        <v>0.001136203613683278</v>
       </c>
       <c r="H66">
-        <v>0.0007764671653039683</v>
-      </c>
-      <c r="I66">
-        <v>0.0007945969592403155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.0009502060864383635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0005187294947366736</v>
+        <v>0.0005900981995053697</v>
       </c>
       <c r="C67">
-        <v>0.0004160598563314528</v>
+        <v>0.0004952226418811323</v>
       </c>
       <c r="D67">
-        <v>0.0006470233009489225</v>
+        <v>0.0006945972583392858</v>
       </c>
       <c r="E67">
-        <v>0.0005234622620885269</v>
+        <v>0.0005863440663366782</v>
       </c>
       <c r="F67">
-        <v>0.0007551224939165252</v>
+        <v>0.0008019168595460863</v>
       </c>
       <c r="G67">
-        <v>0.0004119904375180014</v>
+        <v>0.0004814773653545981</v>
       </c>
       <c r="H67">
-        <v>0.0004668273245097773</v>
-      </c>
-      <c r="I67">
-        <v>0.0004290018678241511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0005534409001167289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0003392745885218631</v>
+        <v>0.0003502322498167169</v>
       </c>
       <c r="C68">
-        <v>0.0001949222704473401</v>
+        <v>0.0002329339335341525</v>
       </c>
       <c r="D68">
-        <v>0.000209931670157256</v>
+        <v>0.0002470764362511892</v>
       </c>
       <c r="E68">
-        <v>0.0002850440417709649</v>
+        <v>0.0003619282828133372</v>
       </c>
       <c r="F68">
-        <v>0.0002682778189184462</v>
+        <v>0.0002826249950702353</v>
       </c>
       <c r="G68">
-        <v>0.0002303934985482564</v>
+        <v>0.0002612911818829383</v>
       </c>
       <c r="H68">
-        <v>0.0006100026776572106</v>
-      </c>
-      <c r="I68">
-        <v>0.0002619608689518832</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.0006457936554576309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.000601912424391941</v>
+        <v>0.0007026600710326392</v>
       </c>
       <c r="C69">
-        <v>0.0004704529947774172</v>
+        <v>0.0005852610985845102</v>
       </c>
       <c r="D69">
-        <v>0.0008808634326363368</v>
+        <v>0.0009443218582912703</v>
       </c>
       <c r="E69">
-        <v>0.001043660585624336</v>
+        <v>0.001110587550144758</v>
       </c>
       <c r="F69">
-        <v>0.00058043507891179</v>
+        <v>0.0006882025799492263</v>
       </c>
       <c r="G69">
-        <v>0.0004951079340465082</v>
+        <v>0.0005917593396737974</v>
       </c>
       <c r="H69">
-        <v>0.0005680780903223591</v>
-      </c>
-      <c r="I69">
-        <v>0.0004831092779757469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.0006560093495953989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0006424491791975169</v>
+        <v>0.0007410608342230098</v>
       </c>
       <c r="C70">
-        <v>0.0003212383966131797</v>
+        <v>0.0003890045468568326</v>
       </c>
       <c r="D70">
-        <v>0.0003484068019638238</v>
+        <v>0.0004201031882668961</v>
       </c>
       <c r="E70">
-        <v>0.0004314376676795209</v>
+        <v>0.0004979973551673582</v>
       </c>
       <c r="F70">
-        <v>0.001045652152329249</v>
+        <v>0.001142375406873838</v>
       </c>
       <c r="G70">
-        <v>0.0004787130253992047</v>
+        <v>0.000564187985581384</v>
       </c>
       <c r="H70">
-        <v>0.0003157433328736095</v>
-      </c>
-      <c r="I70">
-        <v>0.0003203226310814583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0003888232528387929</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.001108585541066644</v>
+        <v>0.001207515054686001</v>
       </c>
       <c r="C71">
-        <v>0.0006406167890628137</v>
+        <v>0.0007193046647294739</v>
       </c>
       <c r="D71">
-        <v>0.0003609758662195511</v>
+        <v>0.0004358244252194392</v>
       </c>
       <c r="E71">
-        <v>0.0003802371155724616</v>
+        <v>0.0004508045094245206</v>
       </c>
       <c r="F71">
-        <v>0.0006751769142102123</v>
+        <v>0.0007640919374484224</v>
       </c>
       <c r="G71">
-        <v>0.0003648390302071865</v>
+        <v>0.000452196015638675</v>
       </c>
       <c r="H71">
-        <v>0.0004273432663294409</v>
-      </c>
-      <c r="I71">
-        <v>0.000389543103951783</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0005009754240228222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0005582192860103107</v>
+        <v>0.0005430844806779194</v>
       </c>
       <c r="C72">
-        <v>0.0002929917584128267</v>
+        <v>0.0002732920943107781</v>
       </c>
       <c r="D72">
-        <v>0.0003210571735035385</v>
+        <v>0.0003689273053654387</v>
       </c>
       <c r="E72">
-        <v>0.0003931560369652139</v>
+        <v>0.0004863602370829941</v>
       </c>
       <c r="F72">
-        <v>0.0002687051630008842</v>
+        <v>0.0002454204525258668</v>
       </c>
       <c r="G72">
-        <v>0.0003544779889290525</v>
+        <v>0.0003395343052595966</v>
       </c>
       <c r="H72">
-        <v>0.0002684538225523239</v>
-      </c>
-      <c r="I72">
-        <v>0.0004334976943287748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.0003127736404175813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0006404022538724929</v>
+        <v>0.0006541021206312134</v>
       </c>
       <c r="C73">
-        <v>0.0006123272381987042</v>
+        <v>0.0006259666829964503</v>
       </c>
       <c r="D73">
-        <v>0.0009084628332012459</v>
+        <v>0.001143464855889432</v>
       </c>
       <c r="E73">
-        <v>0.0008135667670255285</v>
+        <v>0.001001879494995428</v>
       </c>
       <c r="F73">
-        <v>0.0008434354781830869</v>
+        <v>0.0008289830466342941</v>
       </c>
       <c r="G73">
-        <v>0.0007115985970339886</v>
+        <v>0.0007244268411126549</v>
       </c>
       <c r="H73">
-        <v>0.0005103300969476553</v>
-      </c>
-      <c r="I73">
-        <v>0.0006935153318619467</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.0005402212143992792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0004108844765540719</v>
+        <v>0.0004615447852477531</v>
       </c>
       <c r="C74">
-        <v>0.0003746385357097437</v>
+        <v>0.0004316909880271073</v>
       </c>
       <c r="D74">
-        <v>0.0003616164550189326</v>
+        <v>0.000443974110042583</v>
       </c>
       <c r="E74">
-        <v>0.0004868360054817381</v>
+        <v>0.0005602838694169391</v>
       </c>
       <c r="F74">
-        <v>0.0007137892529901828</v>
+        <v>0.0007830131316893131</v>
       </c>
       <c r="G74">
-        <v>0.0003416719921397398</v>
+        <v>0.0003946431801004764</v>
       </c>
       <c r="H74">
-        <v>0.0008407924360612532</v>
-      </c>
-      <c r="I74">
-        <v>0.0003751913998739618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0009309153376136732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0005019784525268509</v>
+        <v>0.0005949228969395649</v>
       </c>
       <c r="C75">
-        <v>0.0004010112150144288</v>
+        <v>0.0004442426288410538</v>
       </c>
       <c r="D75">
-        <v>0.0005965582848319685</v>
+        <v>0.0005860830823507913</v>
       </c>
       <c r="E75">
-        <v>0.0006458737640494226</v>
+        <v>0.0006399489746292129</v>
       </c>
       <c r="F75">
-        <v>0.0008793252830860165</v>
+        <v>0.0008978482282632309</v>
       </c>
       <c r="G75">
-        <v>0.0004977370412698834</v>
+        <v>0.0005848599419727692</v>
       </c>
       <c r="H75">
-        <v>0.000386937616524516</v>
-      </c>
-      <c r="I75">
-        <v>0.0006079320189051057</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0004441147931770223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0003594730128031014</v>
+        <v>0.0004184272763784368</v>
       </c>
       <c r="C76">
-        <v>0.0003881979822650149</v>
+        <v>0.0004600538351358874</v>
       </c>
       <c r="D76">
-        <v>0.0005076183111472683</v>
+        <v>0.0005846456939873132</v>
       </c>
       <c r="E76">
-        <v>0.0002976649390690265</v>
+        <v>0.0003680608919783558</v>
       </c>
       <c r="F76">
-        <v>0.001104877949831959</v>
+        <v>0.001203173897278522</v>
       </c>
       <c r="G76">
-        <v>0.0004322138111148135</v>
+        <v>0.0004886868309460215</v>
       </c>
       <c r="H76">
-        <v>0.0003761613726557995</v>
-      </c>
-      <c r="I76">
-        <v>0.0003358228327542674</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.0004517139252195916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0009572088990934747</v>
+        <v>0.001051918252910871</v>
       </c>
       <c r="C77">
-        <v>0.0003255461463762713</v>
+        <v>0.0003581606002959004</v>
       </c>
       <c r="D77">
-        <v>0.0005317499666205989</v>
+        <v>0.0006751795325604799</v>
       </c>
       <c r="E77">
-        <v>0.0005134223738666627</v>
+        <v>0.0005428896637630315</v>
       </c>
       <c r="F77">
-        <v>0.000771075224839327</v>
+        <v>0.0009605255277691618</v>
       </c>
       <c r="G77">
-        <v>0.0003372205895120228</v>
+        <v>0.0004281786932862095</v>
       </c>
       <c r="H77">
-        <v>0.000335598076671052</v>
-      </c>
-      <c r="I77">
-        <v>0.0003340241072798966</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0003482427753438329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0002892081736540049</v>
+        <v>0.0003033175183053622</v>
       </c>
       <c r="C78">
-        <v>0.0003746293360454371</v>
+        <v>0.0003803575298758294</v>
       </c>
       <c r="D78">
-        <v>0.0005297749907575784</v>
+        <v>0.0005340895845319817</v>
       </c>
       <c r="E78">
-        <v>0.0004534691417686204</v>
+        <v>0.0004406954679517163</v>
       </c>
       <c r="F78">
-        <v>0.0004938382666266449</v>
+        <v>0.0004975671175322885</v>
       </c>
       <c r="G78">
-        <v>0.0002896072198937446</v>
+        <v>0.0003179543552098848</v>
       </c>
       <c r="H78">
-        <v>0.0007425321364058572</v>
-      </c>
-      <c r="I78">
-        <v>0.0004970497336107246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.0009238447300288191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0003196227604990398</v>
+        <v>0.0003668225793697989</v>
       </c>
       <c r="C79">
-        <v>0.0002541610095772694</v>
+        <v>0.0002925437212992963</v>
       </c>
       <c r="D79">
-        <v>0.0001971239361747901</v>
+        <v>0.0002288888291427477</v>
       </c>
       <c r="E79">
-        <v>0.000483472031546941</v>
+        <v>0.0005367013455209205</v>
       </c>
       <c r="F79">
-        <v>0.0002228199053217306</v>
+        <v>0.0002568511338353935</v>
       </c>
       <c r="G79">
-        <v>0.0002080261626735236</v>
+        <v>0.0002462592550662795</v>
       </c>
       <c r="H79">
-        <v>0.0001941570937820815</v>
-      </c>
-      <c r="I79">
-        <v>0.0001852207106725532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.0002230730966264532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0002430871355730622</v>
+        <v>0.0002841716592081922</v>
       </c>
       <c r="C80">
-        <v>0.00032192647414044</v>
+        <v>0.0003541050085929663</v>
       </c>
       <c r="D80">
-        <v>0.0002536035503876235</v>
+        <v>0.0003018751686372993</v>
       </c>
       <c r="E80">
-        <v>0.0002756901286763114</v>
+        <v>0.0003214632631026767</v>
       </c>
       <c r="F80">
-        <v>0.0002174721722883783</v>
+        <v>0.0002387965547494514</v>
       </c>
       <c r="G80">
-        <v>0.0003483457000909579</v>
+        <v>0.0003815626444883388</v>
       </c>
       <c r="H80">
-        <v>0.0001690738171863543</v>
-      </c>
-      <c r="I80">
-        <v>0.000177950360116968</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.000214676781631403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0006132756029769719</v>
+        <v>0.0006722370211205241</v>
       </c>
       <c r="C81">
-        <v>0.000407158175752882</v>
+        <v>0.0004645355491391531</v>
       </c>
       <c r="D81">
-        <v>0.0004083206865777215</v>
+        <v>0.0004980110465828596</v>
       </c>
       <c r="E81">
-        <v>0.0005285920312627963</v>
+        <v>0.0006100824090915955</v>
       </c>
       <c r="F81">
-        <v>0.0007221993833968258</v>
+        <v>0.0008052626888816193</v>
       </c>
       <c r="G81">
-        <v>0.0004016381952538963</v>
+        <v>0.0004983777587242737</v>
       </c>
       <c r="H81">
-        <v>0.0004619775503009979</v>
-      </c>
-      <c r="I81">
-        <v>0.0003447421851619329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.0005126421920060591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0003419835435951832</v>
+        <v>0.0004342263847632084</v>
       </c>
       <c r="C82">
-        <v>0.0003501299074773674</v>
+        <v>0.0003652666715716842</v>
       </c>
       <c r="D82">
-        <v>0.0002892903409311538</v>
+        <v>0.0003141579692538959</v>
       </c>
       <c r="E82">
-        <v>0.000306505478586229</v>
+        <v>0.0003605342183610267</v>
       </c>
       <c r="F82">
-        <v>0.0005431652880484561</v>
+        <v>0.0005753514041488579</v>
       </c>
       <c r="G82">
-        <v>0.0003279374146211665</v>
+        <v>0.0003453207238666633</v>
       </c>
       <c r="H82">
-        <v>0.0006579898072079028</v>
-      </c>
-      <c r="I82">
-        <v>0.0003328062171259706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0007594159430527405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001009856717268239</v>
+        <v>0.001258168679640357</v>
       </c>
       <c r="C83">
-        <v>0.0006235261720901893</v>
+        <v>0.0007145871388585332</v>
       </c>
       <c r="D83">
-        <v>0.0009907296499494791</v>
+        <v>0.0009823468440568043</v>
       </c>
       <c r="E83">
-        <v>0.001104797265683522</v>
+        <v>0.001103065453795317</v>
       </c>
       <c r="F83">
-        <v>0.0006233770431972041</v>
+        <v>0.0006766010365774432</v>
       </c>
       <c r="G83">
-        <v>0.0007339977736070727</v>
+        <v>0.0008738878996398709</v>
       </c>
       <c r="H83">
-        <v>0.0007268637548854266</v>
-      </c>
-      <c r="I83">
-        <v>0.0008125438205772011</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.0007407898779120849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0003717570307125959</v>
+        <v>0.0004146846893637272</v>
       </c>
       <c r="C84">
-        <v>0.0004433081678893189</v>
+        <v>0.0005092564558261075</v>
       </c>
       <c r="D84">
-        <v>0.0005506642962127332</v>
+        <v>0.0006027559250069877</v>
       </c>
       <c r="E84">
-        <v>0.0003888066353506589</v>
+        <v>0.0004384144185799943</v>
       </c>
       <c r="F84">
-        <v>0.0004129422391180628</v>
+        <v>0.0004795601706862339</v>
       </c>
       <c r="G84">
-        <v>0.0007313913996879565</v>
+        <v>0.000802724719390194</v>
       </c>
       <c r="H84">
-        <v>0.0003801536340497891</v>
-      </c>
-      <c r="I84">
-        <v>0.0003607749967548664</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.0004580092025883206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0002979049610265993</v>
+        <v>0.0003606732621717799</v>
       </c>
       <c r="C85">
-        <v>0.0004629277984490647</v>
+        <v>0.0005230684081295955</v>
       </c>
       <c r="D85">
-        <v>0.0003218746605222303</v>
+        <v>0.0004025730591585631</v>
       </c>
       <c r="E85">
-        <v>0.0003005478434404989</v>
+        <v>0.0003807404785359842</v>
       </c>
       <c r="F85">
-        <v>0.001131601471548155</v>
+        <v>0.001228859496386512</v>
       </c>
       <c r="G85">
-        <v>0.0003150145825734228</v>
+        <v>0.0003855775830400025</v>
       </c>
       <c r="H85">
-        <v>0.0006275920377534607</v>
-      </c>
-      <c r="I85">
-        <v>0.0002880017967264798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.000742887530107468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0007207190578479254</v>
+        <v>0.0007879472929995969</v>
       </c>
       <c r="C86">
-        <v>0.0003890237259219579</v>
+        <v>0.0004586471164010518</v>
       </c>
       <c r="D86">
-        <v>0.0007495446869200764</v>
+        <v>0.0008359762684976138</v>
       </c>
       <c r="E86">
-        <v>0.0007171424237096365</v>
+        <v>0.0008058919258895065</v>
       </c>
       <c r="F86">
-        <v>0.0004350125500807241</v>
+        <v>0.0005385857137545795</v>
       </c>
       <c r="G86">
-        <v>0.000441881943576117</v>
+        <v>0.0004971701667038901</v>
       </c>
       <c r="H86">
-        <v>0.0004417253911356697</v>
-      </c>
-      <c r="I86">
-        <v>0.0004037305543248601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.0005088354105862363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.001330796109803913</v>
+        <v>0.001549661432646035</v>
       </c>
       <c r="C87">
-        <v>0.001059441024497407</v>
+        <v>0.001325131421018811</v>
       </c>
       <c r="D87">
-        <v>0.00100304469251548</v>
+        <v>0.001173920324857511</v>
       </c>
       <c r="E87">
-        <v>0.0009435853424722686</v>
+        <v>0.001083134165580864</v>
       </c>
       <c r="F87">
-        <v>0.002734963297499232</v>
+        <v>0.002938091320689087</v>
       </c>
       <c r="G87">
-        <v>0.0008401717824760653</v>
+        <v>0.0009814227198953526</v>
       </c>
       <c r="H87">
-        <v>0.00147195609007192</v>
-      </c>
-      <c r="I87">
-        <v>0.0009185831570602698</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.001697427512942939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0004028557669615727</v>
+        <v>0.0004128508903411915</v>
       </c>
       <c r="C88">
-        <v>0.00033703436319834</v>
+        <v>0.0003443567103974412</v>
       </c>
       <c r="D88">
-        <v>0.0006645029368483297</v>
+        <v>0.0007883061687838353</v>
       </c>
       <c r="E88">
-        <v>0.000571460523144779</v>
+        <v>0.0006870909770606916</v>
       </c>
       <c r="F88">
-        <v>0.0002937060428750278</v>
+        <v>0.0003400916280070803</v>
       </c>
       <c r="G88">
-        <v>0.0005511005810718928</v>
+        <v>0.0005701186136764177</v>
       </c>
       <c r="H88">
-        <v>0.0003172058289407926</v>
-      </c>
-      <c r="I88">
-        <v>0.0004089903818868543</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.0003221373121657355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0006703562504986808</v>
+        <v>0.0007863710702589145</v>
       </c>
       <c r="C89">
-        <v>0.0006235777283687328</v>
+        <v>0.0007017101313645579</v>
       </c>
       <c r="D89">
-        <v>0.0004709836828496667</v>
+        <v>0.0005980224300493188</v>
       </c>
       <c r="E89">
-        <v>0.0004739487337429844</v>
+        <v>0.0005999974922082307</v>
       </c>
       <c r="F89">
-        <v>0.001540935807968045</v>
+        <v>0.001703513863478556</v>
       </c>
       <c r="G89">
-        <v>0.0006419312937766084</v>
+        <v>0.0007103521015725526</v>
       </c>
       <c r="H89">
-        <v>0.000701215972947995</v>
-      </c>
-      <c r="I89">
-        <v>0.0004898271615252822</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0007828746177294197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0003029854755641221</v>
+        <v>0.0003715841840623406</v>
       </c>
       <c r="C90">
-        <v>0.000291653488307408</v>
+        <v>0.0003523853775858735</v>
       </c>
       <c r="D90">
-        <v>0.0003136870721031644</v>
+        <v>0.0003612896127157291</v>
       </c>
       <c r="E90">
-        <v>0.0003346588311484197</v>
+        <v>0.0003813658358191196</v>
       </c>
       <c r="F90">
-        <v>0.0006738690508496635</v>
+        <v>0.0007354264067199572</v>
       </c>
       <c r="G90">
-        <v>0.000462829681548259</v>
+        <v>0.0005313140502869128</v>
       </c>
       <c r="H90">
-        <v>0.0003163521101434285</v>
-      </c>
-      <c r="I90">
-        <v>0.0002511618105777091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.0003709797381670575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0003610206302356133</v>
+        <v>0.0004508861798767979</v>
       </c>
       <c r="C91">
-        <v>0.0003560503500822289</v>
+        <v>0.0004311512633429127</v>
       </c>
       <c r="D91">
-        <v>0.0006388540051826206</v>
+        <v>0.0006961164917112753</v>
       </c>
       <c r="E91">
-        <v>0.0007287222709451963</v>
+        <v>0.0007896670143323763</v>
       </c>
       <c r="F91">
-        <v>0.0003456000909696452</v>
+        <v>0.0004097458008440222</v>
       </c>
       <c r="G91">
-        <v>0.0006740540843622092</v>
+        <v>0.0007738144166918031</v>
       </c>
       <c r="H91">
-        <v>0.0003050217508462991</v>
-      </c>
-      <c r="I91">
-        <v>0.0003112111700822529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0003824036053087935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0002819531613756139</v>
+        <v>0.0003109736619523983</v>
       </c>
       <c r="C92">
-        <v>0.0001937264334290004</v>
+        <v>0.0002283392825745833</v>
       </c>
       <c r="D92">
-        <v>0.0001631547769304068</v>
+        <v>0.0001921242299881034</v>
       </c>
       <c r="E92">
-        <v>0.0001490823427532625</v>
+        <v>0.0001837735411500814</v>
       </c>
       <c r="F92">
-        <v>0.0001467357765134023</v>
+        <v>0.0001863133802985423</v>
       </c>
       <c r="G92">
-        <v>0.0002980445309446008</v>
+        <v>0.0003394280506551545</v>
       </c>
       <c r="H92">
-        <v>0.000321381895848409</v>
-      </c>
-      <c r="I92">
-        <v>0.0001405278891890966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0003538858863103129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0001700036927536215</v>
+        <v>0.0001761882685146255</v>
       </c>
       <c r="C93">
-        <v>0.0002446492055216627</v>
+        <v>0.0002877218340854978</v>
       </c>
       <c r="D93">
-        <v>0.0001566705991656754</v>
+        <v>0.0001674865862357072</v>
       </c>
       <c r="E93">
-        <v>0.0001635262884217274</v>
+        <v>0.0001723587664039778</v>
       </c>
       <c r="F93">
-        <v>0.0001135470776610657</v>
+        <v>0.0001191681235900929</v>
       </c>
       <c r="G93">
-        <v>0.000267830600236062</v>
+        <v>0.0003236746900274647</v>
       </c>
       <c r="H93">
-        <v>0.0003005745868494257</v>
-      </c>
-      <c r="I93">
-        <v>0.0001861222928262316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.0003160416352147943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0003998972073295454</v>
+        <v>0.0004066249615492941</v>
       </c>
       <c r="C94">
-        <v>0.0005259420467836971</v>
+        <v>0.000509766239279969</v>
       </c>
       <c r="D94">
-        <v>0.0004274047873518977</v>
+        <v>0.0004167160215784373</v>
       </c>
       <c r="E94">
-        <v>0.0004515877649228365</v>
+        <v>0.0004899841309284552</v>
       </c>
       <c r="F94">
-        <v>0.0010982054315721</v>
+        <v>0.00131905145838321</v>
       </c>
       <c r="G94">
-        <v>0.0004012214019181084</v>
+        <v>0.0004043466442126372</v>
       </c>
       <c r="H94">
-        <v>0.001054137303462656</v>
-      </c>
-      <c r="I94">
-        <v>0.0007298746576461701</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.00106077475447465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0007514913984659356</v>
+        <v>0.0009050544473471114</v>
       </c>
       <c r="C95">
-        <v>0.000679436238500148</v>
+        <v>0.0008326174545989431</v>
       </c>
       <c r="D95">
-        <v>0.001369502250820626</v>
+        <v>0.001455036621713391</v>
       </c>
       <c r="E95">
-        <v>0.001359663299588122</v>
+        <v>0.001443770872656368</v>
       </c>
       <c r="F95">
-        <v>0.0008048213744388928</v>
+        <v>0.0009230156485069697</v>
       </c>
       <c r="G95">
-        <v>0.0009399685980159958</v>
+        <v>0.001106376490025048</v>
       </c>
       <c r="H95">
-        <v>0.0007342625762783433</v>
-      </c>
-      <c r="I95">
-        <v>0.0006787724111575892</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0009022277911626014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0005247719769689387</v>
+        <v>0.0005880487149746222</v>
       </c>
       <c r="C96">
-        <v>0.0005394321031907278</v>
+        <v>0.0005938935274565256</v>
       </c>
       <c r="D96">
-        <v>0.000309939647181641</v>
+        <v>0.0003489737750135348</v>
       </c>
       <c r="E96">
-        <v>0.0002915927648840925</v>
+        <v>0.0003297960007772359</v>
       </c>
       <c r="F96">
-        <v>0.0007546837753172029</v>
+        <v>0.0008519479129197079</v>
       </c>
       <c r="G96">
-        <v>0.0002912016114436067</v>
+        <v>0.0003419104929739096</v>
       </c>
       <c r="H96">
-        <v>0.0003370756596352658</v>
-      </c>
-      <c r="I96">
-        <v>0.0003460884839338369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0003770302358680866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001134489652663337</v>
+        <v>0.001278904761092545</v>
       </c>
       <c r="C97">
-        <v>0.0008489330600098293</v>
+        <v>0.001035196373931649</v>
       </c>
       <c r="D97">
-        <v>0.001240115174033301</v>
+        <v>0.0015236910888952</v>
       </c>
       <c r="E97">
-        <v>0.0009372855976595232</v>
+        <v>0.001190102485129885</v>
       </c>
       <c r="F97">
-        <v>0.001889475604065713</v>
+        <v>0.002226681973479059</v>
       </c>
       <c r="G97">
-        <v>0.001108105511869728</v>
+        <v>0.001285025612319724</v>
       </c>
       <c r="H97">
-        <v>0.001700091710030693</v>
-      </c>
-      <c r="I97">
-        <v>0.0006208017510230811</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.001920092452607255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0006126697150843861</v>
+        <v>0.0007380527278739932</v>
       </c>
       <c r="C98">
-        <v>0.0009521058353644426</v>
+        <v>0.0009989109868263697</v>
       </c>
       <c r="D98">
-        <v>0.0006934605494383109</v>
+        <v>0.000807360943671164</v>
       </c>
       <c r="E98">
-        <v>0.0006720005213193175</v>
+        <v>0.0008126735352152721</v>
       </c>
       <c r="F98">
-        <v>0.001315472796316444</v>
+        <v>0.001607192569221551</v>
       </c>
       <c r="G98">
-        <v>0.0009290094146442989</v>
+        <v>0.0009734557417855752</v>
       </c>
       <c r="H98">
-        <v>0.001594339566198348</v>
-      </c>
-      <c r="I98">
-        <v>0.000773271690345868</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.001675418448046531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0005217426871723846</v>
+        <v>0.0005769356136073291</v>
       </c>
       <c r="C99">
-        <v>0.0002996463626694233</v>
+        <v>0.0003467124706213002</v>
       </c>
       <c r="D99">
-        <v>0.0003948445782689941</v>
+        <v>0.0004384127306723307</v>
       </c>
       <c r="E99">
-        <v>0.0003608056280325524</v>
+        <v>0.0004062877192401738</v>
       </c>
       <c r="F99">
-        <v>0.0002631745812909221</v>
+        <v>0.0003265266728204601</v>
       </c>
       <c r="G99">
-        <v>0.0003580180615351523</v>
+        <v>0.0004041741804298662</v>
       </c>
       <c r="H99">
-        <v>0.000305844522206546</v>
-      </c>
-      <c r="I99">
-        <v>0.0002600526665373864</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.0003502692765534013</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0004992403383600834</v>
+        <v>0.0005721176811515525</v>
       </c>
       <c r="C100">
-        <v>0.000385819833532849</v>
+        <v>0.0004703313976332839</v>
       </c>
       <c r="D100">
-        <v>0.000376767594755511</v>
+        <v>0.0004668909655050213</v>
       </c>
       <c r="E100">
-        <v>0.0004342665370723432</v>
+        <v>0.0005132307879265015</v>
       </c>
       <c r="F100">
-        <v>0.001059633098156043</v>
+        <v>0.001165662824403929</v>
       </c>
       <c r="G100">
-        <v>0.000341657183784092</v>
+        <v>0.0004278074320788581</v>
       </c>
       <c r="H100">
-        <v>0.0009260870624104352</v>
-      </c>
-      <c r="I100">
-        <v>0.0003650605513139185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.001029175273346444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0002580344721486899</v>
+        <v>0.0003108956670823374</v>
       </c>
       <c r="C101">
-        <v>0.0002869918341498647</v>
+        <v>0.0002991841057805106</v>
       </c>
       <c r="D101">
-        <v>0.0002907942835740926</v>
+        <v>0.0003633373376405465</v>
       </c>
       <c r="E101">
-        <v>0.0002415435153305018</v>
+        <v>0.0002796519168875401</v>
       </c>
       <c r="F101">
-        <v>0.0004538693895507855</v>
+        <v>0.0005302382517349649</v>
       </c>
       <c r="G101">
-        <v>0.0003555004827526233</v>
+        <v>0.0003721010365098407</v>
       </c>
       <c r="H101">
-        <v>0.0004294153285861622</v>
-      </c>
-      <c r="I101">
-        <v>0.0002578857315406899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0004580440690503844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0001359056728676851</v>
+        <v>0.000165856696490534</v>
       </c>
       <c r="C102">
-        <v>0.0002076693698552037</v>
+        <v>0.000239053982187136</v>
       </c>
       <c r="D102">
-        <v>0.0001873853328578345</v>
+        <v>0.0002114141896985779</v>
       </c>
       <c r="E102">
-        <v>0.000134070950659035</v>
+        <v>0.0001638624017822888</v>
       </c>
       <c r="F102">
-        <v>0.0001377492463612065</v>
+        <v>0.0001670005224280881</v>
       </c>
       <c r="G102">
-        <v>0.0002612296998903007</v>
+        <v>0.0002956861032306168</v>
       </c>
       <c r="H102">
-        <v>0.0003912987475544766</v>
-      </c>
-      <c r="I102">
-        <v>0.0001419186594814008</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.0004247865897605446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0002817113423282647</v>
+        <v>0.0003351431804249781</v>
       </c>
       <c r="C103">
-        <v>0.0002425891662590412</v>
+        <v>0.0002878255744898103</v>
       </c>
       <c r="D103">
-        <v>0.0001941038601485043</v>
+        <v>0.0002423569315268601</v>
       </c>
       <c r="E103">
-        <v>0.0001870451667611799</v>
+        <v>0.0002332972865854042</v>
       </c>
       <c r="F103">
-        <v>0.0003728425036739738</v>
+        <v>0.0004278962141134852</v>
       </c>
       <c r="G103">
-        <v>0.000209022108445392</v>
+        <v>0.0002555126714556202</v>
       </c>
       <c r="H103">
-        <v>0.0007249143568721291</v>
-      </c>
-      <c r="I103">
-        <v>0.0001800205050065904</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.0007983368396784014</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0004544336416286927</v>
+        <v>0.0005133221241486728</v>
       </c>
       <c r="C104">
-        <v>0.0003125705259297005</v>
+        <v>0.0003564698470977167</v>
       </c>
       <c r="D104">
-        <v>0.0002250970652605634</v>
+        <v>0.0002716120116611074</v>
       </c>
       <c r="E104">
-        <v>0.0001987601894793909</v>
+        <v>0.0002504996877104085</v>
       </c>
       <c r="F104">
-        <v>0.0005268843126528403</v>
+        <v>0.0005873627488610759</v>
       </c>
       <c r="G104">
-        <v>0.00026047774007287</v>
+        <v>0.0003171596593548896</v>
       </c>
       <c r="H104">
-        <v>0.000244944390331711</v>
-      </c>
-      <c r="I104">
-        <v>0.0001925288245854281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.0002819504570007497</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0003540973557601403</v>
+        <v>0.000421587730710676</v>
       </c>
       <c r="C105">
-        <v>0.0002855435934724846</v>
+        <v>0.0003344878457402769</v>
       </c>
       <c r="D105">
-        <v>0.0004755651209958062</v>
+        <v>0.0004993140333845249</v>
       </c>
       <c r="E105">
-        <v>0.0006992933655404969</v>
+        <v>0.0007318803730014717</v>
       </c>
       <c r="F105">
-        <v>0.0003706662096619614</v>
+        <v>0.0003980226533561736</v>
       </c>
       <c r="G105">
-        <v>0.0003418579421053599</v>
+        <v>0.0004147144936737337</v>
       </c>
       <c r="H105">
-        <v>0.0005415843433342068</v>
-      </c>
-      <c r="I105">
-        <v>0.0003538519883172472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.0006470168638155705</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0004395138848467764</v>
+        <v>0.0005196842187633774</v>
       </c>
       <c r="C106">
-        <v>0.0005488064480135319</v>
+        <v>0.0006347121664812554</v>
       </c>
       <c r="D106">
-        <v>0.0006780309295542357</v>
+        <v>0.0007340671534337677</v>
       </c>
       <c r="E106">
-        <v>0.0008379855416461929</v>
+        <v>0.0008949078431512734</v>
       </c>
       <c r="F106">
-        <v>0.0004187197069303404</v>
+        <v>0.0005160640830890124</v>
       </c>
       <c r="G106">
-        <v>0.0006134551285037564</v>
+        <v>0.0006915208111093769</v>
       </c>
       <c r="H106">
-        <v>0.0005096639586701763</v>
-      </c>
-      <c r="I106">
-        <v>0.0004433679453897473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0005836584240255107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0004363662095983064</v>
+        <v>0.0005210125684082192</v>
       </c>
       <c r="C107">
-        <v>0.0003120486408507558</v>
+        <v>0.0003809656926470836</v>
       </c>
       <c r="D107">
-        <v>0.0003567751753027838</v>
+        <v>0.0003983794227011266</v>
       </c>
       <c r="E107">
-        <v>0.0003129392491200731</v>
+        <v>0.0003696348358946723</v>
       </c>
       <c r="F107">
-        <v>0.0007520550606228212</v>
+        <v>0.0008389934941456167</v>
       </c>
       <c r="G107">
-        <v>0.0004180981298399316</v>
+        <v>0.0004604127485825353</v>
       </c>
       <c r="H107">
-        <v>0.0003339550048980818</v>
-      </c>
-      <c r="I107">
-        <v>0.0002884419469623249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.000374826919767523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0005691624200864601</v>
+        <v>0.0006299291982491571</v>
       </c>
       <c r="C108">
-        <v>0.0002069138675394474</v>
+        <v>0.0002493756569744857</v>
       </c>
       <c r="D108">
-        <v>0.0003870618351781843</v>
+        <v>0.0004311393765342263</v>
       </c>
       <c r="E108">
-        <v>0.0003159736208054773</v>
+        <v>0.0003555513407385836</v>
       </c>
       <c r="F108">
-        <v>0.0001788728081555758</v>
+        <v>0.0002256756369005303</v>
       </c>
       <c r="G108">
-        <v>0.0001871106509149408</v>
+        <v>0.0002357590970674001</v>
       </c>
       <c r="H108">
-        <v>0.0001773614042251048</v>
-      </c>
-      <c r="I108">
-        <v>0.0001735113500941026</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.0002202431972837026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001317447859991861</v>
+        <v>0.001544604543383266</v>
       </c>
       <c r="C109">
-        <v>0.0006490843554982967</v>
+        <v>0.0006928727951459841</v>
       </c>
       <c r="D109">
-        <v>0.0005013488840883146</v>
+        <v>0.0005600534705587552</v>
       </c>
       <c r="E109">
-        <v>0.0005253042058969211</v>
+        <v>0.0005765239714520744</v>
       </c>
       <c r="F109">
-        <v>0.001341109981617686</v>
+        <v>0.00143607713466427</v>
       </c>
       <c r="G109">
-        <v>0.0004691342635118165</v>
+        <v>0.0005260198577157842</v>
       </c>
       <c r="H109">
-        <v>0.0007397368366019487</v>
-      </c>
-      <c r="I109">
-        <v>0.000619430121510825</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.0009156927669777195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0005210781930348978</v>
+        <v>0.000566186543026026</v>
       </c>
       <c r="C110">
-        <v>0.0001915307463791137</v>
+        <v>0.0002314071784286208</v>
       </c>
       <c r="D110">
-        <v>0.0001937997832552117</v>
+        <v>0.0002423813841355887</v>
       </c>
       <c r="E110">
-        <v>0.0002102889520176373</v>
+        <v>0.0002453013138878504</v>
       </c>
       <c r="F110">
-        <v>0.0004126548436671541</v>
+        <v>0.0004766529035214178</v>
       </c>
       <c r="G110">
-        <v>0.0002658684992257499</v>
+        <v>0.0003209315118914379</v>
       </c>
       <c r="H110">
-        <v>0.0002908969317235925</v>
-      </c>
-      <c r="I110">
-        <v>0.0001941838850909356</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.0003193970800414909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.00032193199303828</v>
+        <v>0.0003835205698660623</v>
       </c>
       <c r="C111">
-        <v>0.0002199361206715643</v>
+        <v>0.0002765887264779374</v>
       </c>
       <c r="D111">
-        <v>0.0003928322525468418</v>
+        <v>0.0004222786083829957</v>
       </c>
       <c r="E111">
-        <v>0.0004157656224567889</v>
+        <v>0.0004435698263583046</v>
       </c>
       <c r="F111">
-        <v>0.0002228239514336716</v>
+        <v>0.0002714350591077422</v>
       </c>
       <c r="G111">
-        <v>0.0003181077505896775</v>
+        <v>0.0003774907965545879</v>
       </c>
       <c r="H111">
-        <v>0.000382734308889074</v>
-      </c>
-      <c r="I111">
-        <v>0.0002381995607157187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.0004102141641681614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0002653246389976263</v>
+        <v>0.0002758436393325932</v>
       </c>
       <c r="C112">
-        <v>0.000299079087885684</v>
+        <v>0.0003529525825327596</v>
       </c>
       <c r="D112">
-        <v>0.0002846170306685171</v>
+        <v>0.0002923309709977496</v>
       </c>
       <c r="E112">
-        <v>0.0003260254387925706</v>
+        <v>0.0003388255812275497</v>
       </c>
       <c r="F112">
-        <v>0.0001760287822164051</v>
+        <v>0.0002210162772146898</v>
       </c>
       <c r="G112">
-        <v>0.0003242214292677038</v>
+        <v>0.0003920523231084541</v>
       </c>
       <c r="H112">
-        <v>0.0001935336548875097</v>
-      </c>
-      <c r="I112">
-        <v>0.0002272221978825057</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.0002113884999914796</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001108293448629436</v>
+        <v>0.001270003760540043</v>
       </c>
       <c r="C113">
-        <v>0.0007287801452091221</v>
+        <v>0.0008346580122046624</v>
       </c>
       <c r="D113">
-        <v>0.0008652103785025313</v>
+        <v>0.0009182901156165609</v>
       </c>
       <c r="E113">
-        <v>0.0007954070823396119</v>
+        <v>0.0008552525934321743</v>
       </c>
       <c r="F113">
-        <v>0.001143366290280084</v>
+        <v>0.001225647574160617</v>
       </c>
       <c r="G113">
-        <v>0.0006726788014311161</v>
+        <v>0.0008380545589166084</v>
       </c>
       <c r="H113">
-        <v>0.001249924841595859</v>
-      </c>
-      <c r="I113">
-        <v>0.0007585008007028641</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.001429113093451009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.000670041907918051</v>
+        <v>0.0008496676701400846</v>
       </c>
       <c r="C114">
-        <v>0.001255913420298083</v>
+        <v>0.001305819882046646</v>
       </c>
       <c r="D114">
-        <v>0.0006132630422116739</v>
+        <v>0.000646488353140249</v>
       </c>
       <c r="E114">
-        <v>0.0006120197477689727</v>
+        <v>0.0006188730562073432</v>
       </c>
       <c r="F114">
-        <v>0.0009141808725930727</v>
+        <v>0.0009264224885374216</v>
       </c>
       <c r="G114">
-        <v>0.0005658113604435458</v>
+        <v>0.0006402268824309951</v>
       </c>
       <c r="H114">
-        <v>0.001037679139538143</v>
-      </c>
-      <c r="I114">
-        <v>0.0007482701700104075</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.001260413906734553</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0003083183401295899</v>
+        <v>0.0003614789739695536</v>
       </c>
       <c r="C115">
-        <v>0.0002978496774758453</v>
+        <v>0.000356634253725606</v>
       </c>
       <c r="D115">
-        <v>0.0004328590497997311</v>
+        <v>0.0004823804114866571</v>
       </c>
       <c r="E115">
-        <v>0.0005731882482089409</v>
+        <v>0.0006294289075753797</v>
       </c>
       <c r="F115">
-        <v>0.0003539447299465231</v>
+        <v>0.0004092457993593356</v>
       </c>
       <c r="G115">
-        <v>0.0004743809979782269</v>
+        <v>0.0005323650004100674</v>
       </c>
       <c r="H115">
-        <v>0.0003545250282206485</v>
-      </c>
-      <c r="I115">
-        <v>0.0002924850518539709</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.0004060846338024935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001102882919349466</v>
+        <v>0.001277040889371808</v>
       </c>
       <c r="C116">
-        <v>0.000851495001492337</v>
+        <v>0.0007943111983075038</v>
       </c>
       <c r="D116">
-        <v>0.001076174147793302</v>
+        <v>0.0009109675001944402</v>
       </c>
       <c r="E116">
-        <v>0.001010055731311621</v>
+        <v>0.0008677606511334357</v>
       </c>
       <c r="F116">
-        <v>0.001801084083744865</v>
+        <v>0.001472819171124265</v>
       </c>
       <c r="G116">
-        <v>0.0007992442249611455</v>
+        <v>0.0008262146960310841</v>
       </c>
       <c r="H116">
-        <v>0.001127907281209366</v>
-      </c>
-      <c r="I116">
-        <v>0.001921428135493393</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.001275558357277283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.01361077396312438</v>
+        <v>0.01548535544069409</v>
       </c>
       <c r="C117">
-        <v>0.0005104675443359772</v>
+        <v>0.0006481564872794734</v>
       </c>
       <c r="D117">
-        <v>0.003071364652783872</v>
+        <v>0.003899818238751746</v>
       </c>
       <c r="E117">
-        <v>0.003219490470507187</v>
+        <v>0.004087898835315962</v>
       </c>
       <c r="F117">
-        <v>0.004320664283945345</v>
+        <v>0.005486098223752099</v>
       </c>
       <c r="G117">
-        <v>0.0008158872468387126</v>
+        <v>0.001035958699831502</v>
       </c>
       <c r="H117">
-        <v>0.0002579319232361853</v>
-      </c>
-      <c r="I117">
-        <v>0.001415052207293133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.0003275030657477611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0003015769953639088</v>
+        <v>0.0003040848594420458</v>
       </c>
       <c r="C118">
-        <v>0.0002775863137071564</v>
+        <v>0.0003030589132490937</v>
       </c>
       <c r="D118">
-        <v>0.0004289608050435184</v>
+        <v>0.0003982208418064243</v>
       </c>
       <c r="E118">
-        <v>0.0003649574943028056</v>
+        <v>0.000340248667339112</v>
       </c>
       <c r="F118">
-        <v>0.0002683556420050737</v>
+        <v>0.0002782257669370602</v>
       </c>
       <c r="G118">
-        <v>0.0004464313462735986</v>
+        <v>0.0005491558969151453</v>
       </c>
       <c r="H118">
-        <v>0.0003935207808924195</v>
-      </c>
-      <c r="I118">
-        <v>0.0004757429527341043</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.0003736475806163861</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0005732140290223121</v>
+        <v>0.0006353169479798038</v>
       </c>
       <c r="C119">
-        <v>0.0002819573724023816</v>
+        <v>0.0003399257911085462</v>
       </c>
       <c r="D119">
-        <v>0.0003385459614554619</v>
+        <v>0.0003748312064285668</v>
       </c>
       <c r="E119">
-        <v>0.0004307322286333772</v>
+        <v>0.0004685463573844199</v>
       </c>
       <c r="F119">
-        <v>0.0002797243731318928</v>
+        <v>0.0003410538397131827</v>
       </c>
       <c r="G119">
-        <v>0.0003186540552549878</v>
+        <v>0.0003709541299229344</v>
       </c>
       <c r="H119">
-        <v>0.0003831172327027913</v>
-      </c>
-      <c r="I119">
-        <v>0.000280951536523457</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.0004215008189594831</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004989322182154936</v>
+        <v>0.0005879157031422786</v>
       </c>
       <c r="C120">
-        <v>0.0006749841739947714</v>
+        <v>0.0007678639691226754</v>
       </c>
       <c r="D120">
-        <v>0.0005929635616265789</v>
+        <v>0.0006644806306792747</v>
       </c>
       <c r="E120">
-        <v>0.0006605724196866252</v>
+        <v>0.0007193927235748156</v>
       </c>
       <c r="F120">
-        <v>0.0007850376098415283</v>
+        <v>0.0008638861830202772</v>
       </c>
       <c r="G120">
-        <v>0.0009514008079343361</v>
+        <v>0.001056220906115512</v>
       </c>
       <c r="H120">
-        <v>0.0007235746013889295</v>
-      </c>
-      <c r="I120">
-        <v>0.0005673046800291893</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.0008257031692290454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0003206005999085358</v>
+        <v>0.0003334481962853945</v>
       </c>
       <c r="C121">
-        <v>0.0003193922538733278</v>
+        <v>0.0002983404012127592</v>
       </c>
       <c r="D121">
-        <v>0.0004813179008136167</v>
+        <v>0.000609700707581437</v>
       </c>
       <c r="E121">
-        <v>0.0002847465863015002</v>
+        <v>0.0002988510828173433</v>
       </c>
       <c r="F121">
-        <v>0.0002389059438169372</v>
+        <v>0.0002644318170558041</v>
       </c>
       <c r="G121">
-        <v>0.0004639507760375951</v>
+        <v>0.0004412333176813882</v>
       </c>
       <c r="H121">
-        <v>0.0003975376690505383</v>
-      </c>
-      <c r="I121">
-        <v>0.0004323222954252023</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.0003875923061529725</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0004190579953240251</v>
+        <v>0.0005174137670785682</v>
       </c>
       <c r="C122">
-        <v>0.0003379646233482024</v>
+        <v>0.0004089216975285567</v>
       </c>
       <c r="D122">
-        <v>0.0006649833513143941</v>
+        <v>0.0006886392090373447</v>
       </c>
       <c r="E122">
-        <v>0.0005412642111965124</v>
+        <v>0.0005608781481465236</v>
       </c>
       <c r="F122">
-        <v>0.0005335923468591134</v>
+        <v>0.0005533629094343067</v>
       </c>
       <c r="G122">
-        <v>0.0004194880213143762</v>
+        <v>0.0005310711486015909</v>
       </c>
       <c r="H122">
-        <v>0.0003804233988682153</v>
-      </c>
-      <c r="I122">
-        <v>0.0003565317143939573</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.0004730450433737687</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0006437752049284027</v>
+        <v>0.0007674505189139802</v>
       </c>
       <c r="C123">
-        <v>0.000568391753919442</v>
+        <v>0.0006735109468114091</v>
       </c>
       <c r="D123">
-        <v>0.0006639602713844831</v>
+        <v>0.0007328432882923126</v>
       </c>
       <c r="E123">
-        <v>0.0007322773625012058</v>
+        <v>0.0007925886475366234</v>
       </c>
       <c r="F123">
-        <v>0.001039920548765326</v>
+        <v>0.001125501454225973</v>
       </c>
       <c r="G123">
-        <v>0.0005440995785494312</v>
+        <v>0.0006905073767649721</v>
       </c>
       <c r="H123">
-        <v>0.001469291311335291</v>
-      </c>
-      <c r="I123">
-        <v>0.0005766355991650884</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.001674306709508231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0005997304774699937</v>
+        <v>0.0005453636667400987</v>
       </c>
       <c r="C124">
-        <v>0.000480998463604057</v>
+        <v>0.0004990461417366962</v>
       </c>
       <c r="D124">
-        <v>0.0005633376036858754</v>
+        <v>0.0005929671840029927</v>
       </c>
       <c r="E124">
-        <v>0.0005128083492876088</v>
+        <v>0.0005703767316191534</v>
       </c>
       <c r="F124">
-        <v>0.0007613332869037469</v>
+        <v>0.0006302671413403872</v>
       </c>
       <c r="G124">
-        <v>0.0004075899893520124</v>
+        <v>0.0004119271569606737</v>
       </c>
       <c r="H124">
-        <v>0.0006256605781673475</v>
-      </c>
-      <c r="I124">
-        <v>0.0009438711128119571</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.0005688947425047661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0003816959408899534</v>
+        <v>0.0004125471326276559</v>
       </c>
       <c r="C125">
-        <v>0.0002613235683529268</v>
+        <v>0.0002497766334387574</v>
       </c>
       <c r="D125">
-        <v>0.0004044768731328383</v>
+        <v>0.0003476847894934579</v>
       </c>
       <c r="E125">
-        <v>0.0004503534553390972</v>
+        <v>0.000402409197025775</v>
       </c>
       <c r="F125">
-        <v>0.0002754179424757145</v>
+        <v>0.0002433597812900417</v>
       </c>
       <c r="G125">
-        <v>0.0003521144074110428</v>
+        <v>0.0003658820156241263</v>
       </c>
       <c r="H125">
-        <v>0.0002676577992879192</v>
-      </c>
-      <c r="I125">
-        <v>0.0006173705369343234</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.0002329730672576689</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0004125487011339253</v>
+        <v>0.000507913430340246</v>
       </c>
       <c r="C126">
-        <v>0.000454500572147656</v>
+        <v>0.0005089439446324635</v>
       </c>
       <c r="D126">
-        <v>0.0006624084144272671</v>
+        <v>0.0006677214224219629</v>
       </c>
       <c r="E126">
-        <v>0.0005692005741019015</v>
+        <v>0.000584702706985145</v>
       </c>
       <c r="F126">
-        <v>0.0005948621865771656</v>
+        <v>0.0006038499385314401</v>
       </c>
       <c r="G126">
-        <v>0.0007133147263622261</v>
+        <v>0.0008468418171215223</v>
       </c>
       <c r="H126">
-        <v>0.0005527847052301545</v>
-      </c>
-      <c r="I126">
-        <v>0.0004883784751788777</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.0006875871156162685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0002674806038744708</v>
+        <v>0.0002791542008414221</v>
       </c>
       <c r="C127">
-        <v>0.0002676702158238167</v>
+        <v>0.0002864383488514688</v>
       </c>
       <c r="D127">
-        <v>0.0003306078728599283</v>
+        <v>0.000343396490113848</v>
       </c>
       <c r="E127">
-        <v>0.0004387185102914049</v>
+        <v>0.0004564492464392014</v>
       </c>
       <c r="F127">
-        <v>0.0002603276176952873</v>
+        <v>0.0003208386682441844</v>
       </c>
       <c r="G127">
-        <v>0.0002591053711680991</v>
+        <v>0.0003208433432941981</v>
       </c>
       <c r="H127">
-        <v>0.0006576280498697809</v>
-      </c>
-      <c r="I127">
-        <v>0.0003020621065169587</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0007602399676677028</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0006394897945621087</v>
+        <v>0.0007172301032669159</v>
       </c>
       <c r="C128">
-        <v>0.0003250949198684397</v>
+        <v>0.000370131437450045</v>
       </c>
       <c r="D128">
-        <v>0.0002980312008151576</v>
+        <v>0.0003560663912410982</v>
       </c>
       <c r="E128">
-        <v>0.000368891749426605</v>
+        <v>0.0004237159022406917</v>
       </c>
       <c r="F128">
-        <v>0.0002989216018417409</v>
+        <v>0.0003430989041567277</v>
       </c>
       <c r="G128">
-        <v>0.0004040321390954906</v>
+        <v>0.0004547842220361873</v>
       </c>
       <c r="H128">
-        <v>0.0002302682707088773</v>
-      </c>
-      <c r="I128">
-        <v>0.0002371951326176109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.0002903283099178582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0002611925311257539</v>
+        <v>0.0002566627440208131</v>
       </c>
       <c r="C129">
-        <v>0.0002438136543702938</v>
+        <v>0.000243427853045784</v>
       </c>
       <c r="D129">
-        <v>0.0002612752902051406</v>
+        <v>0.0002952476065739737</v>
       </c>
       <c r="E129">
-        <v>0.000224332377102066</v>
+        <v>0.0002293617014430489</v>
       </c>
       <c r="F129">
-        <v>0.0002791887608855381</v>
+        <v>0.0002763727059165595</v>
       </c>
       <c r="G129">
-        <v>0.0002193752188073295</v>
+        <v>0.0002212845292200455</v>
       </c>
       <c r="H129">
-        <v>0.000815236190080435</v>
-      </c>
-      <c r="I129">
-        <v>0.000371377846142327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.000932089582210756</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001037237595820384</v>
+        <v>0.001310113850653515</v>
       </c>
       <c r="C130">
-        <v>0.0006484428241764593</v>
+        <v>0.000607573699849419</v>
       </c>
       <c r="D130">
-        <v>0.0006270735555188533</v>
+        <v>0.000582935344471129</v>
       </c>
       <c r="E130">
-        <v>0.0005988011131417859</v>
+        <v>0.0005942933179068769</v>
       </c>
       <c r="F130">
-        <v>0.00151383154106742</v>
+        <v>0.001492664877990369</v>
       </c>
       <c r="G130">
-        <v>0.0005943680553885139</v>
+        <v>0.0005561050625397361</v>
       </c>
       <c r="H130">
-        <v>0.0007956042574422762</v>
-      </c>
-      <c r="I130">
-        <v>0.001026519676492517</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.0009368748887439663</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0003283612351455924</v>
+        <v>0.0003311095250162221</v>
       </c>
       <c r="C131">
-        <v>0.0002673530528756311</v>
+        <v>0.0002714601721284775</v>
       </c>
       <c r="D131">
-        <v>0.0003741873528572462</v>
+        <v>0.0003441137766871858</v>
       </c>
       <c r="E131">
-        <v>0.0005225084138676944</v>
+        <v>0.0004950559043543926</v>
       </c>
       <c r="F131">
-        <v>0.0002878143868478478</v>
+        <v>0.0003200034903101257</v>
       </c>
       <c r="G131">
-        <v>0.0003523066859655433</v>
+        <v>0.0003791469815285907</v>
       </c>
       <c r="H131">
-        <v>0.0003917166844456524</v>
-      </c>
-      <c r="I131">
-        <v>0.0005495290947751027</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.000366482670620611</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0003209788604396897</v>
+        <v>0.0003454798567622056</v>
       </c>
       <c r="C132">
-        <v>0.0004034191940849245</v>
+        <v>0.0004194955771516247</v>
       </c>
       <c r="D132">
-        <v>0.0003281949694643061</v>
+        <v>0.000362816516104236</v>
       </c>
       <c r="E132">
-        <v>0.0003235978879236304</v>
+        <v>0.0003448946175201638</v>
       </c>
       <c r="F132">
-        <v>0.00113188330599225</v>
+        <v>0.001180268189615751</v>
       </c>
       <c r="G132">
-        <v>0.0003221617752671232</v>
+        <v>0.0003411278556770262</v>
       </c>
       <c r="H132">
-        <v>0.0007579129572169009</v>
-      </c>
-      <c r="I132">
-        <v>0.0005086278628569413</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.0009160966034039814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0006671940832039274</v>
+        <v>0.0006730772777287965</v>
       </c>
       <c r="C133">
-        <v>0.0002853652831238583</v>
+        <v>0.0002820031432760889</v>
       </c>
       <c r="D133">
-        <v>0.0003249921127556185</v>
+        <v>0.0003960237747556488</v>
       </c>
       <c r="E133">
-        <v>0.0002724701148844662</v>
+        <v>0.0003183613921138844</v>
       </c>
       <c r="F133">
-        <v>0.0002192908573327496</v>
+        <v>0.0002394420421045174</v>
       </c>
       <c r="G133">
-        <v>0.0003935008822429425</v>
+        <v>0.0003859658249543092</v>
       </c>
       <c r="H133">
-        <v>0.0002223743980128352</v>
-      </c>
-      <c r="I133">
-        <v>0.0003835043370969399</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.000246737071330877</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.000695000583419108</v>
+        <v>0.0008229608260868737</v>
       </c>
       <c r="C134">
-        <v>0.0005595597247309101</v>
+        <v>0.0006766771899523576</v>
       </c>
       <c r="D134">
-        <v>0.001013679018460098</v>
+        <v>0.001080730182775536</v>
       </c>
       <c r="E134">
-        <v>0.001013641507845416</v>
+        <v>0.001080498172370454</v>
       </c>
       <c r="F134">
-        <v>0.000609582228901169</v>
+        <v>0.0006912378813956303</v>
       </c>
       <c r="G134">
-        <v>0.000736433994691289</v>
+        <v>0.0008599695854448723</v>
       </c>
       <c r="H134">
-        <v>0.0005201072635375898</v>
-      </c>
-      <c r="I134">
-        <v>0.0005480072565503651</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.0006287075737330391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.00030569921307625</v>
+        <v>0.0003195454307664503</v>
       </c>
       <c r="C135">
-        <v>0.0003768411951857892</v>
+        <v>0.000379970827586554</v>
       </c>
       <c r="D135">
-        <v>0.000348787658516289</v>
+        <v>0.0003975169436495403</v>
       </c>
       <c r="E135">
-        <v>0.0003260032435439245</v>
+        <v>0.0003288297496895281</v>
       </c>
       <c r="F135">
-        <v>0.0004956072625142009</v>
+        <v>0.000507953243752877</v>
       </c>
       <c r="G135">
-        <v>0.0003094486203119288</v>
+        <v>0.0003306195325380608</v>
       </c>
       <c r="H135">
-        <v>0.001025229136544688</v>
-      </c>
-      <c r="I135">
-        <v>0.0004773962536747653</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.001176828915324631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0008878970435098085</v>
+        <v>0.001064289418099802</v>
       </c>
       <c r="C136">
-        <v>0.000820127351060315</v>
+        <v>0.0009369762854191251</v>
       </c>
       <c r="D136">
-        <v>0.0009368612315578353</v>
+        <v>0.0009890881346393842</v>
       </c>
       <c r="E136">
-        <v>0.001057176135641295</v>
+        <v>0.001114054397469642</v>
       </c>
       <c r="F136">
-        <v>0.001262031534587127</v>
+        <v>0.00131087833774433</v>
       </c>
       <c r="G136">
-        <v>0.000989038623857446</v>
+        <v>0.001175632513289542</v>
       </c>
       <c r="H136">
-        <v>0.0009257114275667297</v>
-      </c>
-      <c r="I136">
-        <v>0.0007904068146225916</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.001139786630103413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0004306032313121854</v>
+        <v>0.0004990484895091205</v>
       </c>
       <c r="C137">
-        <v>0.0005421099548153864</v>
+        <v>0.0005967846809617941</v>
       </c>
       <c r="D137">
-        <v>0.0004263743103762677</v>
+        <v>0.000493039206049731</v>
       </c>
       <c r="E137">
-        <v>0.0003814107792284825</v>
+        <v>0.0004628408261900729</v>
       </c>
       <c r="F137">
-        <v>0.0008421389361982891</v>
+        <v>0.0009155718204764177</v>
       </c>
       <c r="G137">
-        <v>0.000469809310512852</v>
+        <v>0.0005239519858322531</v>
       </c>
       <c r="H137">
-        <v>0.0004422289292260872</v>
-      </c>
-      <c r="I137">
-        <v>0.0003788049220271697</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.0005158857977401774</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0006541343828309314</v>
+        <v>0.0008055953475692579</v>
       </c>
       <c r="C138">
-        <v>0.0006654656193550214</v>
+        <v>0.0007889711012094587</v>
       </c>
       <c r="D138">
-        <v>0.0008650936175242198</v>
+        <v>0.0009040120814078676</v>
       </c>
       <c r="E138">
-        <v>0.001023172233198225</v>
+        <v>0.001055540337970594</v>
       </c>
       <c r="F138">
-        <v>0.001169838477180007</v>
+        <v>0.001223089870924688</v>
       </c>
       <c r="G138">
-        <v>0.0007695924253740377</v>
+        <v>0.0009434647597387857</v>
       </c>
       <c r="H138">
-        <v>0.001113737931136846</v>
-      </c>
-      <c r="I138">
-        <v>0.0007228036342096784</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.001311416833764159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0004917050479925633</v>
+        <v>0.0006243330812079219</v>
       </c>
       <c r="C139">
-        <v>0.0004015917784307733</v>
+        <v>0.0003726478433182965</v>
       </c>
       <c r="D139">
-        <v>0.0004248511668521874</v>
+        <v>0.0003945981907768923</v>
       </c>
       <c r="E139">
-        <v>0.0004078833320088536</v>
+        <v>0.000376755448964901</v>
       </c>
       <c r="F139">
-        <v>0.0006316001784348294</v>
+        <v>0.0006155647422736451</v>
       </c>
       <c r="G139">
-        <v>0.0003849930723368755</v>
+        <v>0.0004065975849860821</v>
       </c>
       <c r="H139">
-        <v>0.0005801622266181381</v>
-      </c>
-      <c r="I139">
-        <v>0.0005491832836506451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.0007312479540562727</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.000607015353559218</v>
+        <v>0.0007031957528717486</v>
       </c>
       <c r="C140">
-        <v>0.0004818002458059011</v>
+        <v>0.0005211448701008828</v>
       </c>
       <c r="D140">
-        <v>0.0003351991202598363</v>
+        <v>0.0004239785281141699</v>
       </c>
       <c r="E140">
-        <v>0.0003630835487956202</v>
+        <v>0.0004420686504141243</v>
       </c>
       <c r="F140">
-        <v>0.0006168956767089262</v>
+        <v>0.0006589073467655546</v>
       </c>
       <c r="G140">
-        <v>0.0005345907651740771</v>
+        <v>0.0005723798431368037</v>
       </c>
       <c r="H140">
-        <v>0.0003914773577106242</v>
-      </c>
-      <c r="I140">
-        <v>0.0003455325246566131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.0004678900971161069</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0006797839875646651</v>
+        <v>0.0007228079891288294</v>
       </c>
       <c r="C141">
-        <v>0.0002387122759014737</v>
+        <v>0.0002746549909915302</v>
       </c>
       <c r="D141">
-        <v>0.0002368894300870219</v>
+        <v>0.0002784166840126571</v>
       </c>
       <c r="E141">
-        <v>0.0002552599036661025</v>
+        <v>0.0002864023909403399</v>
       </c>
       <c r="F141">
-        <v>0.0003876614915545571</v>
+        <v>0.0004160016195103268</v>
       </c>
       <c r="G141">
-        <v>0.0002224629869440984</v>
+        <v>0.0002598655469300496</v>
       </c>
       <c r="H141">
-        <v>0.0006773646329123515</v>
-      </c>
-      <c r="I141">
-        <v>0.0003223583528976336</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.000778460385991978</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0001566907887107374</v>
+        <v>0.0001587308116594223</v>
       </c>
       <c r="C142">
-        <v>0.0001260069439323819</v>
+        <v>0.000144940213485728</v>
       </c>
       <c r="D142">
-        <v>0.0001592983047542409</v>
+        <v>0.0001587277440173562</v>
       </c>
       <c r="E142">
-        <v>0.0001844944375250522</v>
+        <v>0.0001893075273881157</v>
       </c>
       <c r="F142">
-        <v>0.0001828697840515458</v>
+        <v>0.0002228415398667974</v>
       </c>
       <c r="G142">
-        <v>0.0001963608802364023</v>
+        <v>0.0002422033476010309</v>
       </c>
       <c r="H142">
-        <v>0.0001294115173151885</v>
-      </c>
-      <c r="I142">
-        <v>0.0001498618702312606</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.0001342842579198661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0008598092762129141</v>
+        <v>0.0007703392484113026</v>
       </c>
       <c r="C143">
-        <v>0.0007334374957063939</v>
+        <v>0.0006031025313901627</v>
       </c>
       <c r="D143">
-        <v>0.0007670695532264864</v>
+        <v>0.0007678991789507936</v>
       </c>
       <c r="E143">
-        <v>0.0008825035610982944</v>
+        <v>0.000961046785714989</v>
       </c>
       <c r="F143">
-        <v>0.001376803814810202</v>
+        <v>0.001429129010159321</v>
       </c>
       <c r="G143">
-        <v>0.0008616438411843846</v>
+        <v>0.0007773091794062647</v>
       </c>
       <c r="H143">
-        <v>0.001126421696705543</v>
-      </c>
-      <c r="I143">
-        <v>0.001604827813741959</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.001043486623067601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0009418403621173042</v>
+        <v>0.001003529292006018</v>
       </c>
       <c r="C144">
-        <v>0.0007216255996524393</v>
+        <v>0.0008713717772720974</v>
       </c>
       <c r="D144">
-        <v>0.0007001788212477817</v>
+        <v>0.0007875930493116597</v>
       </c>
       <c r="E144">
-        <v>0.0005962885899431521</v>
+        <v>0.0007186666222573084</v>
       </c>
       <c r="F144">
-        <v>0.001350012812929019</v>
+        <v>0.001440112298814769</v>
       </c>
       <c r="G144">
-        <v>0.000585329743139318</v>
+        <v>0.0007197440364651369</v>
       </c>
       <c r="H144">
-        <v>0.001195571050325411</v>
-      </c>
-      <c r="I144">
-        <v>0.0006241846386875158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.001400199928613777</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001816598308603436</v>
+        <v>0.002119194495759902</v>
       </c>
       <c r="C145">
-        <v>0.001208057441302584</v>
+        <v>0.001465462832787431</v>
       </c>
       <c r="D145">
-        <v>0.001994191867979726</v>
+        <v>0.002148128605955419</v>
       </c>
       <c r="E145">
-        <v>0.001971098382131327</v>
+        <v>0.002131535437658958</v>
       </c>
       <c r="F145">
-        <v>0.001823290603505741</v>
+        <v>0.00200757696524306</v>
       </c>
       <c r="G145">
-        <v>0.001446005470172146</v>
+        <v>0.001725820090500139</v>
       </c>
       <c r="H145">
-        <v>0.001264236119540812</v>
-      </c>
-      <c r="I145">
-        <v>0.001139662075787371</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.001586982865729578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0003922684967531949</v>
+        <v>0.0004494148416574564</v>
       </c>
       <c r="C146">
-        <v>0.0002764638361286535</v>
+        <v>0.0003098866783914294</v>
       </c>
       <c r="D146">
-        <v>0.0003267566304414732</v>
+        <v>0.0003768314175065967</v>
       </c>
       <c r="E146">
-        <v>0.0004782160600765946</v>
+        <v>0.0005360517369775009</v>
       </c>
       <c r="F146">
-        <v>0.000290573529053645</v>
+        <v>0.0003203471424316365</v>
       </c>
       <c r="G146">
-        <v>0.0003405121987848363</v>
+        <v>0.0003852354321815066</v>
       </c>
       <c r="H146">
-        <v>0.0002946831200198338</v>
-      </c>
-      <c r="I146">
-        <v>0.000272263251571462</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.0003232296404723114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0004745007594691591</v>
+        <v>0.0005259882244191695</v>
       </c>
       <c r="C147">
-        <v>0.0003298953657366926</v>
+        <v>0.0002658074368118377</v>
       </c>
       <c r="D147">
-        <v>0.000340619479818752</v>
+        <v>0.00025754503132922</v>
       </c>
       <c r="E147">
-        <v>0.0004622208912648705</v>
+        <v>0.0003723863792964106</v>
       </c>
       <c r="F147">
-        <v>0.0007628228507271091</v>
+        <v>0.0006660192872482212</v>
       </c>
       <c r="G147">
-        <v>0.0002916955836048863</v>
+        <v>0.0002470901563072579</v>
       </c>
       <c r="H147">
-        <v>0.0003539605408885286</v>
-      </c>
-      <c r="I147">
-        <v>0.0009338771088478702</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.0003085496126265979</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.000693452768926463</v>
+        <v>0.0008767644488710557</v>
       </c>
       <c r="C148">
-        <v>0.000612694487986421</v>
+        <v>0.0006139398165086274</v>
       </c>
       <c r="D148">
-        <v>0.0007086416432624949</v>
+        <v>0.0006886165112805822</v>
       </c>
       <c r="E148">
-        <v>0.0006850594832861461</v>
+        <v>0.0006653316329855623</v>
       </c>
       <c r="F148">
-        <v>0.0007993157295489277</v>
+        <v>0.0007918778922912627</v>
       </c>
       <c r="G148">
-        <v>0.0006040957104557535</v>
+        <v>0.0007042957824648979</v>
       </c>
       <c r="H148">
-        <v>0.001051935573407801</v>
-      </c>
-      <c r="I148">
-        <v>0.0007475265481740781</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.001255749379869347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0005060200457431669</v>
+        <v>0.0005926636511058294</v>
       </c>
       <c r="C149">
-        <v>0.0008914911912006304</v>
+        <v>0.000996375878869935</v>
       </c>
       <c r="D149">
-        <v>0.0003426623002800305</v>
+        <v>0.0003960968364475639</v>
       </c>
       <c r="E149">
-        <v>0.0005085662358792308</v>
+        <v>0.0005497846279974357</v>
       </c>
       <c r="F149">
-        <v>0.0004788924438316966</v>
+        <v>0.0005140212584687586</v>
       </c>
       <c r="G149">
-        <v>0.0003328356266602191</v>
+        <v>0.0004170768532266584</v>
       </c>
       <c r="H149">
-        <v>0.0004196872921347091</v>
-      </c>
-      <c r="I149">
-        <v>0.0003822436793762225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.0004675110126971751</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0005231413411151823</v>
+        <v>0.0005447570498518968</v>
       </c>
       <c r="C150">
-        <v>0.0002060952826140282</v>
+        <v>0.0002586976771443236</v>
       </c>
       <c r="D150">
-        <v>0.0002478431359988325</v>
+        <v>0.000258590583203534</v>
       </c>
       <c r="E150">
-        <v>0.0002623006257240917</v>
+        <v>0.0002717304876267804</v>
       </c>
       <c r="F150">
-        <v>0.0002191328857153789</v>
+        <v>0.0002765000551983056</v>
       </c>
       <c r="G150">
-        <v>0.0002416544446131395</v>
+        <v>0.0003068349746814064</v>
       </c>
       <c r="H150">
-        <v>0.0001827145731753477</v>
-      </c>
-      <c r="I150">
-        <v>0.000209174850400013</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.0002080570122446277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0002662040614540363</v>
+        <v>0.0003151161331621399</v>
       </c>
       <c r="C151">
-        <v>0.0002961992884646263</v>
+        <v>0.0003760924945976994</v>
       </c>
       <c r="D151">
-        <v>0.0004243021102769882</v>
+        <v>0.0004561119571403366</v>
       </c>
       <c r="E151">
-        <v>0.0004011674208872795</v>
+        <v>0.0004314553660453281</v>
       </c>
       <c r="F151">
-        <v>0.0003274498110334613</v>
+        <v>0.0003631482601123723</v>
       </c>
       <c r="G151">
-        <v>0.0006250489069599721</v>
+        <v>0.0007023768536897633</v>
       </c>
       <c r="H151">
-        <v>0.0004090015716736252</v>
-      </c>
-      <c r="I151">
-        <v>0.0002904791098147634</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.0004778460366252933</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0002687624726426881</v>
+        <v>0.0002699404474305326</v>
       </c>
       <c r="C152">
-        <v>0.0002755853321021589</v>
+        <v>0.0003499182241714349</v>
       </c>
       <c r="D152">
-        <v>0.0003264519115831545</v>
+        <v>0.0003264284965369886</v>
       </c>
       <c r="E152">
-        <v>0.0002579739825511577</v>
+        <v>0.0002697464120930007</v>
       </c>
       <c r="F152">
-        <v>0.0003745441369799633</v>
+        <v>0.0004511447210278895</v>
       </c>
       <c r="G152">
-        <v>0.0002384188593007249</v>
+        <v>0.0002899402623498337</v>
       </c>
       <c r="H152">
-        <v>0.0003456898576797733</v>
-      </c>
-      <c r="I152">
-        <v>0.0002751907854871558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.0003439436013247879</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0002044811445301472</v>
+        <v>0.0002397560597784857</v>
       </c>
       <c r="C153">
-        <v>0.0001906033941953088</v>
+        <v>0.0002351690190134218</v>
       </c>
       <c r="D153">
-        <v>0.0002559444190874051</v>
+        <v>0.0003091220728513419</v>
       </c>
       <c r="E153">
-        <v>0.0004303277070142791</v>
+        <v>0.0004939733417256832</v>
       </c>
       <c r="F153">
-        <v>0.0001943376284285992</v>
+        <v>0.0002349023894998825</v>
       </c>
       <c r="G153">
-        <v>0.0004757736266435241</v>
+        <v>0.0005117320765408407</v>
       </c>
       <c r="H153">
-        <v>0.0003857537436947063</v>
-      </c>
-      <c r="I153">
-        <v>0.0002136835978859115</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.0004177316754615164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0002764723891173861</v>
+        <v>0.0003076013760036495</v>
       </c>
       <c r="C154">
-        <v>0.00032848830500441</v>
+        <v>0.0003359980657393414</v>
       </c>
       <c r="D154">
-        <v>0.0004457380112311546</v>
+        <v>0.000542187558023621</v>
       </c>
       <c r="E154">
-        <v>0.0003756033849410811</v>
+        <v>0.000460959245703772</v>
       </c>
       <c r="F154">
-        <v>0.0001960846925781846</v>
+        <v>0.0002011281946021282</v>
       </c>
       <c r="G154">
-        <v>0.0003348328550632136</v>
+        <v>0.0003308614708128059</v>
       </c>
       <c r="H154">
-        <v>0.0002519173284860436</v>
-      </c>
-      <c r="I154">
-        <v>0.0002949497025872558</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.0002517776796927199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0003120721762007667</v>
+        <v>0.0002661291620978085</v>
       </c>
       <c r="C155">
-        <v>0.0002389238275639564</v>
+        <v>0.000207006175203885</v>
       </c>
       <c r="D155">
-        <v>0.0005970058994749071</v>
+        <v>0.0007460176983082921</v>
       </c>
       <c r="E155">
-        <v>0.000339690125009274</v>
+        <v>0.0003815022510461214</v>
       </c>
       <c r="F155">
-        <v>0.0002311846825739451</v>
+        <v>0.0002063519763568645</v>
       </c>
       <c r="G155">
-        <v>0.0004367088896359649</v>
+        <v>0.0003921790133347966</v>
       </c>
       <c r="H155">
-        <v>0.0002625740810881686</v>
-      </c>
-      <c r="I155">
-        <v>0.000505901021934322</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.0002288784971496156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0002285945503082024</v>
+        <v>0.0002502574516574584</v>
       </c>
       <c r="C156">
-        <v>0.0002700373353102633</v>
+        <v>0.0002804530714839993</v>
       </c>
       <c r="D156">
-        <v>0.0002280257193263338</v>
+        <v>0.0002445728808196598</v>
       </c>
       <c r="E156">
-        <v>0.0002496845323360216</v>
+        <v>0.0002559599139357199</v>
       </c>
       <c r="F156">
-        <v>0.000651105746579059</v>
+        <v>0.0006760669000137649</v>
       </c>
       <c r="G156">
-        <v>0.0002279418640062048</v>
+        <v>0.0002472155838736509</v>
       </c>
       <c r="H156">
-        <v>0.0006723714690772687</v>
-      </c>
-      <c r="I156">
-        <v>0.0003656965260984942</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.0007907265363229151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.000159221701613785</v>
+        <v>0.0001825303363622052</v>
       </c>
       <c r="C157">
-        <v>0.0001710618569891669</v>
+        <v>0.0002161200101497154</v>
       </c>
       <c r="D157">
-        <v>0.0001736580860431392</v>
+        <v>0.0002091108686149899</v>
       </c>
       <c r="E157">
-        <v>0.0003198639674148932</v>
+        <v>0.0003402890999885424</v>
       </c>
       <c r="F157">
-        <v>0.0002353740691696939</v>
+        <v>0.0002845583735212165</v>
       </c>
       <c r="G157">
-        <v>0.0001806283522310291</v>
+        <v>0.0002237741970732</v>
       </c>
       <c r="H157">
-        <v>0.000489750877578718</v>
-      </c>
-      <c r="I157">
-        <v>0.0001751380033645895</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.0005173226215103114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0004196605618156196</v>
+        <v>0.000526123603776562</v>
       </c>
       <c r="C158">
-        <v>0.0003256423191688297</v>
+        <v>0.0003445224602218548</v>
       </c>
       <c r="D158">
-        <v>0.0003040559573548269</v>
+        <v>0.0003244969455405308</v>
       </c>
       <c r="E158">
-        <v>0.0002756660767457414</v>
+        <v>0.0002973378471661276</v>
       </c>
       <c r="F158">
-        <v>0.000434171037395884</v>
+        <v>0.0004581451455329056</v>
       </c>
       <c r="G158">
-        <v>0.0002985686802681366</v>
+        <v>0.0003266634259987884</v>
       </c>
       <c r="H158">
-        <v>0.0008880802265138739</v>
-      </c>
-      <c r="I158">
-        <v>0.0003588710587111683</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.001007485054406462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0004355093432861882</v>
+        <v>0.0004720333362343915</v>
       </c>
       <c r="C159">
-        <v>0.0003396799117967266</v>
+        <v>0.0003820579678113432</v>
       </c>
       <c r="D159">
-        <v>0.0003402515376255274</v>
+        <v>0.0003789254103981775</v>
       </c>
       <c r="E159">
-        <v>0.0004738285486621319</v>
+        <v>0.0005104429873068155</v>
       </c>
       <c r="F159">
-        <v>0.0003362956278884978</v>
+        <v>0.0004128615946041164</v>
       </c>
       <c r="G159">
-        <v>0.0004830052880445635</v>
+        <v>0.0005605954089356999</v>
       </c>
       <c r="H159">
-        <v>0.0007940797914121972</v>
-      </c>
-      <c r="I159">
-        <v>0.0003541742441671179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.0008998961327888641</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001008987269781578</v>
+        <v>0.001162972475980308</v>
       </c>
       <c r="C160">
-        <v>0.0006716914207862922</v>
+        <v>0.0008205812825669833</v>
       </c>
       <c r="D160">
-        <v>0.0004398473840224841</v>
+        <v>0.0004299483438083501</v>
       </c>
       <c r="E160">
-        <v>0.0004853033051176932</v>
+        <v>0.0004804011411605</v>
       </c>
       <c r="F160">
-        <v>0.0004425150308121298</v>
+        <v>0.0004767490607936148</v>
       </c>
       <c r="G160">
-        <v>0.0003966353441496676</v>
+        <v>0.0003996791412938079</v>
       </c>
       <c r="H160">
-        <v>0.0004890187436797971</v>
-      </c>
-      <c r="I160">
-        <v>0.0005803708874175227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.0004878905307366054</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0002183701125019269</v>
+        <v>0.0002299864962331357</v>
       </c>
       <c r="C161">
-        <v>9.538438414106766E-05</v>
+        <v>0.0001081901567931636</v>
       </c>
       <c r="D161">
-        <v>0.0001542987862597978</v>
+        <v>0.0001638294081359533</v>
       </c>
       <c r="E161">
-        <v>0.0001336743154073846</v>
+        <v>0.0001633271627750046</v>
       </c>
       <c r="F161">
-        <v>0.0001725362163309549</v>
+        <v>0.0002040394168076855</v>
       </c>
       <c r="G161">
-        <v>9.851212690530513E-05</v>
+        <v>0.0001177183928143563</v>
       </c>
       <c r="H161">
-        <v>0.0001067391889788016</v>
-      </c>
-      <c r="I161">
-        <v>0.0001107461655241182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.0001160179200299992</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001358865621705402</v>
+        <v>0.001661660522979838</v>
       </c>
       <c r="C162">
-        <v>0.0008734173142891854</v>
+        <v>0.0009323555698207526</v>
       </c>
       <c r="D162">
-        <v>0.001075894645657029</v>
+        <v>0.001067593729121506</v>
       </c>
       <c r="E162">
-        <v>0.001025144361935572</v>
+        <v>0.001011530185241066</v>
       </c>
       <c r="F162">
-        <v>0.001303800621379849</v>
+        <v>0.001288328474608561</v>
       </c>
       <c r="G162">
-        <v>0.0008223919691020288</v>
+        <v>0.0009461195007214316</v>
       </c>
       <c r="H162">
-        <v>0.001107865759773307</v>
-      </c>
-      <c r="I162">
-        <v>0.001025970375911961</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.001398274082740999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0009466664820192203</v>
+        <v>0.001011331713303258</v>
       </c>
       <c r="C163">
-        <v>0.0003504856333563289</v>
+        <v>0.0003880716647864162</v>
       </c>
       <c r="D163">
-        <v>0.0002733318385039156</v>
+        <v>0.0003097398873753205</v>
       </c>
       <c r="E163">
-        <v>0.0003163024626956573</v>
+        <v>0.0003920126571084179</v>
       </c>
       <c r="F163">
-        <v>0.0004474777104220162</v>
+        <v>0.0005325238826527839</v>
       </c>
       <c r="G163">
-        <v>0.0002590901770473362</v>
+        <v>0.0003173301465648359</v>
       </c>
       <c r="H163">
-        <v>0.0002718365834946168</v>
-      </c>
-      <c r="I163">
-        <v>0.0002932789280015479</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.000314639977908986</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.000310773811718116</v>
+        <v>0.0003945982829220254</v>
       </c>
       <c r="C164">
-        <v>0.0004618626537120915</v>
+        <v>0.0005864411363367055</v>
       </c>
       <c r="D164">
-        <v>0.000715387614346536</v>
+        <v>0.0007764069064283051</v>
       </c>
       <c r="E164">
-        <v>0.0006684686725155605</v>
+        <v>0.0007278365070029952</v>
       </c>
       <c r="F164">
-        <v>0.001300822020813694</v>
+        <v>0.001415009576902606</v>
       </c>
       <c r="G164">
-        <v>0.0003960508990575473</v>
+        <v>0.0005028776207618225</v>
       </c>
       <c r="H164">
-        <v>0.0003203145010862289</v>
-      </c>
-      <c r="I164">
-        <v>0.0003855837101391716</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.0004067124340914073</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.01263758850248776</v>
+        <v>0.01417703966313094</v>
       </c>
       <c r="C165">
-        <v>0.001262047201519135</v>
+        <v>0.001218071240699426</v>
       </c>
       <c r="D165">
-        <v>0.004063927157427897</v>
+        <v>0.004808870441085451</v>
       </c>
       <c r="E165">
-        <v>0.00399959667147329</v>
+        <v>0.004691426973627256</v>
       </c>
       <c r="F165">
-        <v>0.006395815955369815</v>
+        <v>0.00792623679228233</v>
       </c>
       <c r="G165">
-        <v>0.001522595642438613</v>
+        <v>0.001596772832478788</v>
       </c>
       <c r="H165">
-        <v>0.0008917590540169636</v>
-      </c>
-      <c r="I165">
-        <v>0.003032929457564029</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.000804553503959349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0003497123373589688</v>
+        <v>0.0003829323726236086</v>
       </c>
       <c r="C166">
-        <v>0.0002833523429371453</v>
+        <v>0.0003094218859942837</v>
       </c>
       <c r="D166">
-        <v>0.0005143238540340754</v>
+        <v>0.0005027202849761106</v>
       </c>
       <c r="E166">
-        <v>0.0004262455661822052</v>
+        <v>0.0004193185062013859</v>
       </c>
       <c r="F166">
-        <v>0.0005851135272828151</v>
+        <v>0.0005853833577480345</v>
       </c>
       <c r="G166">
-        <v>0.0003570061472964616</v>
+        <v>0.000397942734776799</v>
       </c>
       <c r="H166">
-        <v>0.0003401443171100582</v>
-      </c>
-      <c r="I166">
-        <v>0.0004892596453386854</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.000407287738679346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0005234902398460295</v>
+        <v>0.0005209073592632214</v>
       </c>
       <c r="C167">
-        <v>0.0004784731168782403</v>
+        <v>0.0005204723144965135</v>
       </c>
       <c r="D167">
-        <v>0.0004774000113639098</v>
+        <v>0.0004757877484331151</v>
       </c>
       <c r="E167">
-        <v>0.0004712187160942502</v>
+        <v>0.0004724880659597328</v>
       </c>
       <c r="F167">
-        <v>0.0007166301711281732</v>
+        <v>0.0007249244486703595</v>
       </c>
       <c r="G167">
-        <v>0.0005113664393664544</v>
+        <v>0.0006132356277058764</v>
       </c>
       <c r="H167">
-        <v>0.001296404450955754</v>
-      </c>
-      <c r="I167">
-        <v>0.0006762423124129897</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.001495582433609708</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.0001912673049553815</v>
+        <v>0.0002000095383940464</v>
       </c>
       <c r="C168">
-        <v>8.708069184423208E-05</v>
+        <v>0.0001087134058963316</v>
       </c>
       <c r="D168">
-        <v>0.0001063885050651147</v>
+        <v>0.0001159334745070782</v>
       </c>
       <c r="E168">
-        <v>0.0002026660994581485</v>
+        <v>0.0002135667070283444</v>
       </c>
       <c r="F168">
-        <v>8.188912555724211E-05</v>
+        <v>9.441009442268228E-05</v>
       </c>
       <c r="G168">
-        <v>0.0001094689229250956</v>
+        <v>0.000138302570037471</v>
       </c>
       <c r="H168">
-        <v>9.744950009182148E-05</v>
-      </c>
-      <c r="I168">
-        <v>9.593701431814999E-05</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.0001198068746508894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001857185023151958</v>
+        <v>0.002260188756456911</v>
       </c>
       <c r="C169">
-        <v>0.001128395841862067</v>
+        <v>0.00114370928403403</v>
       </c>
       <c r="D169">
-        <v>0.00119148998037988</v>
+        <v>0.001156774531391988</v>
       </c>
       <c r="E169">
-        <v>0.0014573610014644</v>
+        <v>0.00142385163306639</v>
       </c>
       <c r="F169">
-        <v>0.001630366630223766</v>
+        <v>0.00160221228698803</v>
       </c>
       <c r="G169">
-        <v>0.0009956863059604017</v>
+        <v>0.001032959315223607</v>
       </c>
       <c r="H169">
-        <v>0.001695023905719684</v>
-      </c>
-      <c r="I169">
-        <v>0.001498187258880036</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.002118866955835546</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001413154285998206</v>
+        <v>0.00163273511480489</v>
       </c>
       <c r="C170">
-        <v>0.0006362543779991729</v>
+        <v>0.0008010570231149339</v>
       </c>
       <c r="D170">
-        <v>0.0009059524914428748</v>
+        <v>0.001049699491426466</v>
       </c>
       <c r="E170">
-        <v>0.000720988922099521</v>
+        <v>0.000881117015076642</v>
       </c>
       <c r="F170">
-        <v>0.001952058764238948</v>
+        <v>0.002207239551704656</v>
       </c>
       <c r="G170">
-        <v>0.0005821464136818188</v>
+        <v>0.00073427983384523</v>
       </c>
       <c r="H170">
-        <v>0.001059504467543776</v>
-      </c>
-      <c r="I170">
-        <v>0.0005541064226912909</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.001221357949238157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0005711511746466302</v>
+        <v>0.0006334309915298417</v>
       </c>
       <c r="C171">
-        <v>0.0004579932402083498</v>
+        <v>0.0005255360738775469</v>
       </c>
       <c r="D171">
-        <v>0.0003512135349811058</v>
+        <v>0.0004345607761891533</v>
       </c>
       <c r="E171">
-        <v>0.0005020738101454491</v>
+        <v>0.0005782511728721589</v>
       </c>
       <c r="F171">
-        <v>0.0005033594218328355</v>
+        <v>0.0005610804574044967</v>
       </c>
       <c r="G171">
-        <v>0.0003279214372673767</v>
+        <v>0.0004151282243122178</v>
       </c>
       <c r="H171">
-        <v>0.001017065209667441</v>
-      </c>
-      <c r="I171">
-        <v>0.000359174717888827</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.001133058409006883</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0002943948759928353</v>
+        <v>0.0003445965761800894</v>
       </c>
       <c r="C172">
-        <v>0.0002913215727708471</v>
+        <v>0.0003430034487677575</v>
       </c>
       <c r="D172">
-        <v>0.0004340099116693728</v>
+        <v>0.000473856505496072</v>
       </c>
       <c r="E172">
-        <v>0.0005958677257067713</v>
+        <v>0.0006471956525701995</v>
       </c>
       <c r="F172">
-        <v>0.0001836903877134642</v>
+        <v>0.0002304611606249213</v>
       </c>
       <c r="G172">
-        <v>0.0003348995492246605</v>
+        <v>0.0003972984979026793</v>
       </c>
       <c r="H172">
-        <v>0.000195809796811169</v>
-      </c>
-      <c r="I172">
-        <v>0.0002167222810006425</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.0002468861035416312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0005157763650509786</v>
+        <v>0.0006019223195828249</v>
       </c>
       <c r="C173">
-        <v>0.0003749601283198283</v>
+        <v>0.0004641640750284908</v>
       </c>
       <c r="D173">
-        <v>0.0004877184530786587</v>
+        <v>0.000522767257420907</v>
       </c>
       <c r="E173">
-        <v>0.000747865543181464</v>
+        <v>0.0008049164023628947</v>
       </c>
       <c r="F173">
-        <v>0.0005395278498036033</v>
+        <v>0.0005801860445641182</v>
       </c>
       <c r="G173">
-        <v>0.0005742777800137663</v>
+        <v>0.0006601943831625518</v>
       </c>
       <c r="H173">
-        <v>0.0004210754748048252</v>
-      </c>
-      <c r="I173">
-        <v>0.0003803851810428499</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.0005316205378992121</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0003142579779093394</v>
+        <v>0.0003962314149057469</v>
       </c>
       <c r="C174">
-        <v>0.0002927286174513073</v>
+        <v>0.0003652307985556948</v>
       </c>
       <c r="D174">
-        <v>0.000432358242454975</v>
+        <v>0.0004724343617376855</v>
       </c>
       <c r="E174">
-        <v>0.0003850659865312464</v>
+        <v>0.0004299016974165862</v>
       </c>
       <c r="F174">
-        <v>0.0005376635502227822</v>
+        <v>0.0005777533436523014</v>
       </c>
       <c r="G174">
-        <v>0.000336603749977311</v>
+        <v>0.0004149302998287602</v>
       </c>
       <c r="H174">
-        <v>0.0007695094480922644</v>
-      </c>
-      <c r="I174">
-        <v>0.0002892559704076333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.0008720281854278277</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0006887748802001807</v>
+        <v>0.0008445822804111768</v>
       </c>
       <c r="C175">
-        <v>0.0005166172826869852</v>
+        <v>0.0005308206155050095</v>
       </c>
       <c r="D175">
-        <v>0.0005160479470195196</v>
+        <v>0.0005215251242619035</v>
       </c>
       <c r="E175">
-        <v>0.0005070409276250398</v>
+        <v>0.0005177808095604523</v>
       </c>
       <c r="F175">
-        <v>0.0008266418362089794</v>
+        <v>0.000849978429489422</v>
       </c>
       <c r="G175">
-        <v>0.0004726622767016386</v>
+        <v>0.0005069766727483371</v>
       </c>
       <c r="H175">
-        <v>0.001404349714918111</v>
-      </c>
-      <c r="I175">
-        <v>0.0006797731993832712</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.001627712502266631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0003709057708277545</v>
+        <v>0.0004650671672935963</v>
       </c>
       <c r="C176">
-        <v>0.0003997421340199602</v>
+        <v>0.0004793445261634511</v>
       </c>
       <c r="D176">
-        <v>0.0003674158862366513</v>
+        <v>0.0004577852313275976</v>
       </c>
       <c r="E176">
-        <v>0.0004431052189366115</v>
+        <v>0.0005259713347112383</v>
       </c>
       <c r="F176">
-        <v>0.0007135909836965898</v>
+        <v>0.0008100868862432873</v>
       </c>
       <c r="G176">
-        <v>0.0007752594101540549</v>
+        <v>0.0008498361179375317</v>
       </c>
       <c r="H176">
-        <v>0.0008080353980356448</v>
-      </c>
-      <c r="I176">
-        <v>0.0003571662197120697</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.0008825078913389071</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0002277126945559623</v>
+        <v>0.0002402642833746634</v>
       </c>
       <c r="C177">
-        <v>0.0001879888672165813</v>
+        <v>0.0002000773982339363</v>
       </c>
       <c r="D177">
-        <v>0.0003040447221813224</v>
+        <v>0.0003218344746229903</v>
       </c>
       <c r="E177">
-        <v>0.0001861288495454627</v>
+        <v>0.0002321333710185328</v>
       </c>
       <c r="F177">
-        <v>0.0002020618690784558</v>
+        <v>0.0002091410072137404</v>
       </c>
       <c r="G177">
-        <v>0.0002242152752777152</v>
+        <v>0.0002796113736026099</v>
       </c>
       <c r="H177">
-        <v>0.0003321261298966564</v>
-      </c>
-      <c r="I177">
-        <v>0.0001848988308849365</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.000395360963875228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0002807972296501944</v>
+        <v>0.0003271703754955691</v>
       </c>
       <c r="C178">
-        <v>0.0001160637833875276</v>
+        <v>0.0001386186157437367</v>
       </c>
       <c r="D178">
-        <v>0.0001890067965160581</v>
+        <v>0.0002072226593904837</v>
       </c>
       <c r="E178">
-        <v>0.0001452609242112041</v>
+        <v>0.0001655949180202477</v>
       </c>
       <c r="F178">
-        <v>0.0002926246573029689</v>
+        <v>0.0003215715633946706</v>
       </c>
       <c r="G178">
-        <v>0.00015219983529156</v>
+        <v>0.0001815799062178815</v>
       </c>
       <c r="H178">
-        <v>0.0001997886135502891</v>
-      </c>
-      <c r="I178">
-        <v>0.0001386016573039027</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.0002290848959998728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0001161144549010038</v>
+        <v>0.0001432894931944214</v>
       </c>
       <c r="C179">
-        <v>0.000144399382256517</v>
+        <v>0.0001653734184412697</v>
       </c>
       <c r="D179">
-        <v>0.0002837209356078922</v>
+        <v>0.0003222429825541946</v>
       </c>
       <c r="E179">
-        <v>0.0001575106873029871</v>
+        <v>0.00017827332214293</v>
       </c>
       <c r="F179">
-        <v>0.0003062637257385058</v>
+        <v>0.0003290193651347245</v>
       </c>
       <c r="G179">
-        <v>0.0001175819798609659</v>
+        <v>0.0001419734669497298</v>
       </c>
       <c r="H179">
-        <v>0.0002123406604418672</v>
-      </c>
-      <c r="I179">
-        <v>0.0001353064913439506</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.0002468461612167219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0003058340306989428</v>
+        <v>0.0003750358306044429</v>
       </c>
       <c r="C180">
-        <v>0.0003805837746411887</v>
+        <v>0.0004371831873248945</v>
       </c>
       <c r="D180">
-        <v>0.000356274486618906</v>
+        <v>0.0004119751149876272</v>
       </c>
       <c r="E180">
-        <v>0.0004278849992291239</v>
+        <v>0.0004770388579114193</v>
       </c>
       <c r="F180">
-        <v>0.0003154804831489107</v>
+        <v>0.0003707104472836596</v>
       </c>
       <c r="G180">
-        <v>0.0003865385252505097</v>
+        <v>0.0004424264887282988</v>
       </c>
       <c r="H180">
-        <v>0.0006551648363398087</v>
-      </c>
-      <c r="I180">
-        <v>0.000285000129864163</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.0007142660048670628</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0009858981401519573</v>
+        <v>0.001001580118620144</v>
       </c>
       <c r="C181">
-        <v>0.000622459060305634</v>
+        <v>0.0006858107296722818</v>
       </c>
       <c r="D181">
-        <v>0.0007781647376035473</v>
+        <v>0.0008799780971975475</v>
       </c>
       <c r="E181">
-        <v>0.0005540692696356733</v>
+        <v>0.0005793486963074799</v>
       </c>
       <c r="F181">
-        <v>0.000995192003165196</v>
+        <v>0.000786272263722346</v>
       </c>
       <c r="G181">
-        <v>0.0004198712789162713</v>
+        <v>0.0003988273907777434</v>
       </c>
       <c r="H181">
-        <v>0.0005708690248532616</v>
-      </c>
-      <c r="I181">
-        <v>0.001076762700029806</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.0005563625790484382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0004905804392745387</v>
+        <v>0.0005237988120776179</v>
       </c>
       <c r="C182">
-        <v>0.001147680911621179</v>
+        <v>0.001150246007374474</v>
       </c>
       <c r="D182">
-        <v>0.0008420852736485481</v>
+        <v>0.0008039086993091445</v>
       </c>
       <c r="E182">
-        <v>0.0008099299044732653</v>
+        <v>0.0008397897684594144</v>
       </c>
       <c r="F182">
-        <v>0.00194584689752314</v>
+        <v>0.002470708485255095</v>
       </c>
       <c r="G182">
-        <v>0.0006071678412337345</v>
+        <v>0.0005965924696133126</v>
       </c>
       <c r="H182">
-        <v>0.001966350788585544</v>
-      </c>
-      <c r="I182">
-        <v>0.001097980766346052</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.002136992019645738</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0001656187088315687</v>
+        <v>0.0002055278572493744</v>
       </c>
       <c r="C183">
-        <v>0.0001381609358140758</v>
+        <v>0.0001523230994280618</v>
       </c>
       <c r="D183">
-        <v>0.0003082044373435865</v>
+        <v>0.0003294044043291998</v>
       </c>
       <c r="E183">
-        <v>0.0001192023323815504</v>
+        <v>0.0001401551476553184</v>
       </c>
       <c r="F183">
-        <v>0.0001155177222405384</v>
+        <v>0.0001319500284945763</v>
       </c>
       <c r="G183">
-        <v>0.0001329915325026298</v>
+        <v>0.0001455228890298079</v>
       </c>
       <c r="H183">
-        <v>0.0002417964631395831</v>
-      </c>
-      <c r="I183">
-        <v>0.0001306133827438901</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.0002802461866991215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0007766051318077496</v>
+        <v>0.0008324876697098742</v>
       </c>
       <c r="C184">
-        <v>0.0003348416443961659</v>
+        <v>0.0003778833558377861</v>
       </c>
       <c r="D184">
-        <v>0.0003111789529936738</v>
+        <v>0.0003516211345044412</v>
       </c>
       <c r="E184">
-        <v>0.0003260897001659298</v>
+        <v>0.0003979189736550089</v>
       </c>
       <c r="F184">
-        <v>0.0009044446076317698</v>
+        <v>0.001019117994401112</v>
       </c>
       <c r="G184">
-        <v>0.0003683683120511824</v>
+        <v>0.0004543614196185596</v>
       </c>
       <c r="H184">
-        <v>0.0003522926192907601</v>
-      </c>
-      <c r="I184">
-        <v>0.0003555055572746227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.0003990736535270887</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0004473528690745444</v>
+        <v>0.0004990769211074179</v>
       </c>
       <c r="C185">
-        <v>0.0004888461407382514</v>
+        <v>0.0004920088023579187</v>
       </c>
       <c r="D185">
-        <v>0.0007193662216062722</v>
+        <v>0.0007069332696803707</v>
       </c>
       <c r="E185">
-        <v>0.0008380099294390164</v>
+        <v>0.0008361553097154105</v>
       </c>
       <c r="F185">
-        <v>0.001167944195560455</v>
+        <v>0.001396962321187375</v>
       </c>
       <c r="G185">
-        <v>0.0004337507763029119</v>
+        <v>0.0004723999096131407</v>
       </c>
       <c r="H185">
-        <v>0.000550392412938354</v>
-      </c>
-      <c r="I185">
-        <v>0.0007511911812386033</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.0005414139101916349</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0009530548623719493</v>
+        <v>0.0009942721166193691</v>
       </c>
       <c r="C186">
-        <v>0.0003866035817734754</v>
+        <v>0.0003970971594442357</v>
       </c>
       <c r="D186">
-        <v>0.0003333355894589555</v>
+        <v>0.0004039495799399266</v>
       </c>
       <c r="E186">
-        <v>0.0003353862673559615</v>
+        <v>0.0004150839591199779</v>
       </c>
       <c r="F186">
-        <v>0.0003689863557313531</v>
+        <v>0.0003837962594783941</v>
       </c>
       <c r="G186">
-        <v>0.0003873153893832304</v>
+        <v>0.0004004872269836683</v>
       </c>
       <c r="H186">
-        <v>0.0004865170179762768</v>
-      </c>
-      <c r="I186">
-        <v>0.0004061734906916343</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.0006177456557647834</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.000591629069051546</v>
+        <v>0.0006632315745980915</v>
       </c>
       <c r="C187">
-        <v>0.0004468549987255905</v>
+        <v>0.0005659064954829832</v>
       </c>
       <c r="D187">
-        <v>0.0005451996323577278</v>
+        <v>0.0006462322207386049</v>
       </c>
       <c r="E187">
-        <v>0.0004541209145827121</v>
+        <v>0.0005576334993251755</v>
       </c>
       <c r="F187">
-        <v>0.001224353618454456</v>
+        <v>0.001370837689486354</v>
       </c>
       <c r="G187">
-        <v>0.0004723359561606483</v>
+        <v>0.0005601213505588988</v>
       </c>
       <c r="H187">
-        <v>0.001177357471827587</v>
-      </c>
-      <c r="I187">
-        <v>0.0004501608441671552</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.00130120624038377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0001694960031674529</v>
+        <v>0.0002043371734402652</v>
       </c>
       <c r="C188">
-        <v>0.000216462970675082</v>
+        <v>0.0002361708093622186</v>
       </c>
       <c r="D188">
-        <v>0.0001656106548869726</v>
+        <v>0.0001915878075421413</v>
       </c>
       <c r="E188">
-        <v>0.0001631267507058319</v>
+        <v>0.0002035060806589159</v>
       </c>
       <c r="F188">
-        <v>0.000549980871529222</v>
+        <v>0.000586224300438304</v>
       </c>
       <c r="G188">
-        <v>0.0001577865329639924</v>
+        <v>0.0001857901438799909</v>
       </c>
       <c r="H188">
-        <v>0.0001800901612621772</v>
-      </c>
-      <c r="I188">
-        <v>0.0001568905360720188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.0002279959443885554</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0001730829607542499</v>
+        <v>0.0001974577631060569</v>
       </c>
       <c r="C189">
-        <v>0.0001463227364780951</v>
+        <v>0.0001546596895226348</v>
       </c>
       <c r="D189">
-        <v>0.0001391580946895397</v>
+        <v>0.0001589002925333519</v>
       </c>
       <c r="E189">
-        <v>0.000160689674897061</v>
+        <v>0.0001690664189929577</v>
       </c>
       <c r="F189">
-        <v>0.0005059799795623602</v>
+        <v>0.0005729515541376483</v>
       </c>
       <c r="G189">
-        <v>0.0001510977676773225</v>
+        <v>0.0001704772102234393</v>
       </c>
       <c r="H189">
-        <v>0.0001308710165620227</v>
-      </c>
-      <c r="I189">
-        <v>0.0001759764980131233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.0001398202191261851</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0007339906472581773</v>
+        <v>0.0007627515380801937</v>
       </c>
       <c r="C190">
-        <v>0.0006613634950763823</v>
+        <v>0.0007184808597419508</v>
       </c>
       <c r="D190">
-        <v>0.0006446098732343222</v>
+        <v>0.0008135112209391788</v>
       </c>
       <c r="E190">
-        <v>0.0006821008345118717</v>
+        <v>0.000861044091464755</v>
       </c>
       <c r="F190">
-        <v>0.0009787859175406782</v>
+        <v>0.001186756853661984</v>
       </c>
       <c r="G190">
-        <v>0.0008168287948292707</v>
+        <v>0.0008385201023690488</v>
       </c>
       <c r="H190">
-        <v>0.001261513212893652</v>
-      </c>
-      <c r="I190">
-        <v>0.0006806153233000811</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.001292781919859314</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0006956218363686508</v>
+        <v>0.0008119319545270349</v>
       </c>
       <c r="C191">
-        <v>0.0004517414902223009</v>
+        <v>0.0005123580265495749</v>
       </c>
       <c r="D191">
-        <v>0.0004858975241120943</v>
+        <v>0.0005385456380790285</v>
       </c>
       <c r="E191">
-        <v>0.0006089301332598749</v>
+        <v>0.000661636824065955</v>
       </c>
       <c r="F191">
-        <v>0.0006226432532866358</v>
+        <v>0.0006767490937064024</v>
       </c>
       <c r="G191">
-        <v>0.0004813621054836779</v>
+        <v>0.0006075203554570336</v>
       </c>
       <c r="H191">
-        <v>0.0009990425873229222</v>
-      </c>
-      <c r="I191">
-        <v>0.0004613467378660829</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.001122775801830341</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0004326628159931033</v>
+        <v>0.0003768030151915957</v>
       </c>
       <c r="C192">
-        <v>0.0004436229880090234</v>
+        <v>0.0004065039986820013</v>
       </c>
       <c r="D192">
-        <v>0.0004324498832281111</v>
+        <v>0.0003799114250855416</v>
       </c>
       <c r="E192">
-        <v>0.0004718343983857408</v>
+        <v>0.0004120196378181532</v>
       </c>
       <c r="F192">
-        <v>0.0006708534858803324</v>
+        <v>0.0006154501609493362</v>
       </c>
       <c r="G192">
-        <v>0.000474748268035823</v>
+        <v>0.0005152068970103419</v>
       </c>
       <c r="H192">
-        <v>0.001129930700495896</v>
-      </c>
-      <c r="I192">
-        <v>0.0008355535926627853</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.001383352149558771</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0004272716662587611</v>
+        <v>0.0005286217383338153</v>
       </c>
       <c r="C193">
-        <v>0.0004734177110506899</v>
+        <v>0.0004632136760302145</v>
       </c>
       <c r="D193">
-        <v>0.0003586707794997435</v>
+        <v>0.000414656627312191</v>
       </c>
       <c r="E193">
-        <v>0.0005032066377467574</v>
+        <v>0.0006360007663815216</v>
       </c>
       <c r="F193">
-        <v>0.001130761378560926</v>
+        <v>0.001156339195987116</v>
       </c>
       <c r="G193">
-        <v>0.0003322982023427409</v>
+        <v>0.0003421661255069661</v>
       </c>
       <c r="H193">
-        <v>0.0004140689484202542</v>
-      </c>
-      <c r="I193">
-        <v>0.0005179470460663113</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.0004227984456383984</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0004855066295519825</v>
+        <v>0.0005080781873631044</v>
       </c>
       <c r="C194">
-        <v>0.0007110992709045137</v>
+        <v>0.0008231749876358758</v>
       </c>
       <c r="D194">
-        <v>0.0009047658285886944</v>
+        <v>0.0008502398218049565</v>
       </c>
       <c r="E194">
-        <v>0.0005008036560329683</v>
+        <v>0.0004797658867735874</v>
       </c>
       <c r="F194">
-        <v>0.001161629414561103</v>
+        <v>0.001129609544905356</v>
       </c>
       <c r="G194">
-        <v>0.0004153541277754543</v>
+        <v>0.0004076570067389201</v>
       </c>
       <c r="H194">
-        <v>0.0004450119900143701</v>
-      </c>
-      <c r="I194">
-        <v>0.0009742405488797922</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.0004359226458772091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0002698182737922322</v>
+        <v>0.0003037730832223124</v>
       </c>
       <c r="C195">
-        <v>0.0002303477157107579</v>
+        <v>0.0002585922509066858</v>
       </c>
       <c r="D195">
-        <v>0.0002012617241392864</v>
+        <v>0.000247875884264286</v>
       </c>
       <c r="E195">
-        <v>0.0003172690631977038</v>
+        <v>0.0003512755804362168</v>
       </c>
       <c r="F195">
-        <v>0.0002535043353559943</v>
+        <v>0.0002898393448209867</v>
       </c>
       <c r="G195">
-        <v>0.0002830452830618447</v>
+        <v>0.0003192521554603698</v>
       </c>
       <c r="H195">
-        <v>0.000261647716903774</v>
-      </c>
-      <c r="I195">
-        <v>0.0001947758461221749</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.0002890549414912743</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0004804749660904141</v>
+        <v>0.0005374122007219307</v>
       </c>
       <c r="C196">
-        <v>0.0001684799423987674</v>
+        <v>0.000201134726736059</v>
       </c>
       <c r="D196">
-        <v>0.0001915514456822487</v>
+        <v>0.0002404976118756977</v>
       </c>
       <c r="E196">
-        <v>0.00019699588768944</v>
+        <v>0.0002401939755326561</v>
       </c>
       <c r="F196">
-        <v>0.0002610860791751522</v>
+        <v>0.0002970728492244679</v>
       </c>
       <c r="G196">
-        <v>0.0002196764369526485</v>
+        <v>0.0002571052883248046</v>
       </c>
       <c r="H196">
-        <v>0.0003839811911143039</v>
-      </c>
-      <c r="I196">
-        <v>0.0001656373497586485</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.0004316190190010104</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.000352900998947921</v>
+        <v>0.0003599436564738438</v>
       </c>
       <c r="C197">
-        <v>0.0005169077505688819</v>
+        <v>0.0006020665776136877</v>
       </c>
       <c r="D197">
-        <v>0.0001855583831454492</v>
+        <v>0.0001861253627852867</v>
       </c>
       <c r="E197">
-        <v>0.000182525759936398</v>
+        <v>0.0001890681287416135</v>
       </c>
       <c r="F197">
-        <v>0.0002084527297193071</v>
+        <v>0.0002268966099314908</v>
       </c>
       <c r="G197">
-        <v>0.0002413182935768296</v>
+        <v>0.0002457842732227371</v>
       </c>
       <c r="H197">
-        <v>0.0002278574737404729</v>
-      </c>
-      <c r="I197">
-        <v>0.0002861550442931051</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.000258981774811219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0002454931064045545</v>
+        <v>0.0002918108867023817</v>
       </c>
       <c r="C198">
-        <v>0.0002313605505991035</v>
+        <v>0.0002388664673426583</v>
       </c>
       <c r="D198">
-        <v>0.0001566496680877606</v>
+        <v>0.0001779519129393713</v>
       </c>
       <c r="E198">
-        <v>0.0001984250498835351</v>
+        <v>0.0002081786749155028</v>
       </c>
       <c r="F198">
-        <v>0.0003508009595119641</v>
+        <v>0.0003646861432275233</v>
       </c>
       <c r="G198">
-        <v>0.0001631519672479334</v>
+        <v>0.0002036707225268749</v>
       </c>
       <c r="H198">
-        <v>0.0001994687743225006</v>
-      </c>
-      <c r="I198">
-        <v>0.0001835724702890955</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.0002439346767687033</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0003122901618236156</v>
+        <v>0.0002854551418042041</v>
       </c>
       <c r="C199">
-        <v>0.0004805511974953257</v>
+        <v>0.0003869043892299355</v>
       </c>
       <c r="D199">
-        <v>0.000761372535876899</v>
+        <v>0.0005679766185465006</v>
       </c>
       <c r="E199">
-        <v>0.0008384683328696188</v>
+        <v>0.0007041539638136229</v>
       </c>
       <c r="F199">
-        <v>0.001231945251983147</v>
+        <v>0.001294792917289065</v>
       </c>
       <c r="G199">
-        <v>0.0004224235140548992</v>
+        <v>0.0003451178168049993</v>
       </c>
       <c r="H199">
-        <v>0.0003367719143365816</v>
-      </c>
-      <c r="I199">
-        <v>0.001329387617244338</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.0002939260447378789</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0004057791246066499</v>
+        <v>0.0004435130625243555</v>
       </c>
       <c r="C200">
-        <v>0.0001915871237337591</v>
+        <v>0.0002376779311500944</v>
       </c>
       <c r="D200">
-        <v>0.0002175953086049792</v>
+        <v>0.0002618876328154995</v>
       </c>
       <c r="E200">
-        <v>0.000260331768446496</v>
+        <v>0.0003202579030198005</v>
       </c>
       <c r="F200">
-        <v>0.0003510174675190386</v>
+        <v>0.0004154738930074855</v>
       </c>
       <c r="G200">
-        <v>0.0002437057690147153</v>
+        <v>0.0002858000677017777</v>
       </c>
       <c r="H200">
-        <v>0.0006239445360099</v>
-      </c>
-      <c r="I200">
-        <v>0.000214733348480118</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.0006754608497775979</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.000234948763187925</v>
+        <v>0.0002311971723596257</v>
       </c>
       <c r="C201">
-        <v>0.000169148878352076</v>
+        <v>0.0001719682980222555</v>
       </c>
       <c r="D201">
-        <v>0.0002075582922385736</v>
+        <v>0.0002316064634392454</v>
       </c>
       <c r="E201">
-        <v>0.0002329847295473548</v>
+        <v>0.00027996873001195</v>
       </c>
       <c r="F201">
-        <v>0.0001641491216890885</v>
+        <v>0.0001810770231807043</v>
       </c>
       <c r="G201">
-        <v>0.000251780032575847</v>
+        <v>0.0002445872859719305</v>
       </c>
       <c r="H201">
-        <v>0.0006311372952041973</v>
-      </c>
-      <c r="I201">
-        <v>0.000315759234959871</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.0006606340906125642</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0003881503358111929</v>
+        <v>0.0004605931655543627</v>
       </c>
       <c r="C202">
-        <v>0.000384120867058678</v>
+        <v>0.000455032002268817</v>
       </c>
       <c r="D202">
-        <v>0.0005699554392823476</v>
+        <v>0.0006352136093363212</v>
       </c>
       <c r="E202">
-        <v>0.0006764973092462207</v>
+        <v>0.0007467533414922977</v>
       </c>
       <c r="F202">
-        <v>0.0004163894871433365</v>
+        <v>0.0004868956890329581</v>
       </c>
       <c r="G202">
-        <v>0.0008779935245339642</v>
+        <v>0.0009787553925154169</v>
       </c>
       <c r="H202">
-        <v>0.0003445806218028927</v>
-      </c>
-      <c r="I202">
-        <v>0.0003621613536998209</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.0004212053966362418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0007650434289878007</v>
+        <v>0.0008755563637520896</v>
       </c>
       <c r="C203">
-        <v>0.0003953487512157846</v>
+        <v>0.0004934831120886799</v>
       </c>
       <c r="D203">
-        <v>0.0004378704128972282</v>
+        <v>0.0004969700875380611</v>
       </c>
       <c r="E203">
-        <v>0.0005389313209568401</v>
+        <v>0.0006040176639733262</v>
       </c>
       <c r="F203">
-        <v>0.001279189016578345</v>
+        <v>0.001399423117986706</v>
       </c>
       <c r="G203">
-        <v>0.0003504372914727557</v>
+        <v>0.0004370386247242152</v>
       </c>
       <c r="H203">
-        <v>0.0005198745608116669</v>
-      </c>
-      <c r="I203">
-        <v>0.0003859518597801347</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.0006464246939998921</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0004646804194919405</v>
+        <v>0.0005739493167464032</v>
       </c>
       <c r="C204">
-        <v>0.0003884359690073784</v>
+        <v>0.0004791282411803864</v>
       </c>
       <c r="D204">
-        <v>0.0004407524463269111</v>
+        <v>0.0005287560500071275</v>
       </c>
       <c r="E204">
-        <v>0.000707642049567334</v>
+        <v>0.0007742625941777526</v>
       </c>
       <c r="F204">
-        <v>0.0009561603366735041</v>
+        <v>0.001031342674963702</v>
       </c>
       <c r="G204">
-        <v>0.0003808024609068823</v>
+        <v>0.0004755943557218446</v>
       </c>
       <c r="H204">
-        <v>0.0005827604987433029</v>
-      </c>
-      <c r="I204">
-        <v>0.0003112103730354921</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.0007207440746976158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0001928183164050704</v>
+        <v>0.0002358975112054282</v>
       </c>
       <c r="C205">
-        <v>0.0002434863305742905</v>
+        <v>0.0002877904181337221</v>
       </c>
       <c r="D205">
-        <v>0.0001677171826283311</v>
+        <v>0.0002088847731435911</v>
       </c>
       <c r="E205">
-        <v>0.000216155862292278</v>
+        <v>0.0002422276887967824</v>
       </c>
       <c r="F205">
-        <v>0.0006587484411442671</v>
+        <v>0.0007120446331357772</v>
       </c>
       <c r="G205">
-        <v>0.0002419063069294464</v>
+        <v>0.0002692958492844651</v>
       </c>
       <c r="H205">
-        <v>0.0001778272526817689</v>
-      </c>
-      <c r="I205">
-        <v>0.0001827562900879307</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.000222604676105279</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0003499317634210753</v>
+        <v>0.0003724812110399592</v>
       </c>
       <c r="C206">
-        <v>0.0002843659661889907</v>
+        <v>0.0003436798358227619</v>
       </c>
       <c r="D206">
-        <v>0.000449472191476673</v>
+        <v>0.0004584015810964977</v>
       </c>
       <c r="E206">
-        <v>0.0004695278407679138</v>
+        <v>0.0004807551325175097</v>
       </c>
       <c r="F206">
-        <v>0.0002910561053388219</v>
+        <v>0.000303631232965013</v>
       </c>
       <c r="G206">
-        <v>0.0003607931126588303</v>
+        <v>0.0004390351656512964</v>
       </c>
       <c r="H206">
-        <v>0.0005632165888840062</v>
-      </c>
-      <c r="I206">
-        <v>0.0003535056979361451</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.0006682486321460065</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0002352361636555909</v>
+        <v>0.0002418227394024379</v>
       </c>
       <c r="C207">
-        <v>0.0003268953741266046</v>
+        <v>0.0003385518807541444</v>
       </c>
       <c r="D207">
-        <v>0.0002697440945767048</v>
+        <v>0.0003290192615001569</v>
       </c>
       <c r="E207">
-        <v>0.0002168364301117891</v>
+        <v>0.0002335440719447474</v>
       </c>
       <c r="F207">
-        <v>0.000339050459050797</v>
+        <v>0.0003491568426863736</v>
       </c>
       <c r="G207">
-        <v>0.000196436585434505</v>
+        <v>0.0002432719000588943</v>
       </c>
       <c r="H207">
-        <v>0.0006082607489577001</v>
-      </c>
-      <c r="I207">
-        <v>0.0002697075595759684</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.0007060222193272786</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0005811472328752207</v>
+        <v>0.0006877362089027422</v>
       </c>
       <c r="C208">
-        <v>0.0003988875416513057</v>
+        <v>0.0004798015100649187</v>
       </c>
       <c r="D208">
-        <v>0.0003638267762326178</v>
+        <v>0.0004619615108099963</v>
       </c>
       <c r="E208">
-        <v>0.0003907850620847355</v>
+        <v>0.0004720349056018386</v>
       </c>
       <c r="F208">
-        <v>0.001394340373548598</v>
+        <v>0.001587951953474503</v>
       </c>
       <c r="G208">
-        <v>0.0002949720076210037</v>
+        <v>0.0003668307830650516</v>
       </c>
       <c r="H208">
-        <v>0.0002954318239110999</v>
-      </c>
-      <c r="I208">
-        <v>0.0002313373598782044</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.0003725903631254855</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0003341128163046011</v>
+        <v>0.0003904869329470138</v>
       </c>
       <c r="C209">
-        <v>0.0002946398168859351</v>
+        <v>0.0003740178787889939</v>
       </c>
       <c r="D209">
-        <v>0.0003668709690841647</v>
+        <v>0.0004273569012625125</v>
       </c>
       <c r="E209">
-        <v>0.0003960445030839929</v>
+        <v>0.0004524061464664541</v>
       </c>
       <c r="F209">
-        <v>0.0006870101652087511</v>
+        <v>0.0007658476213666412</v>
       </c>
       <c r="G209">
-        <v>0.0004001650177342153</v>
+        <v>0.0004597019426267043</v>
       </c>
       <c r="H209">
-        <v>0.0006794961435478205</v>
-      </c>
-      <c r="I209">
-        <v>0.0003088015379341356</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.0007483439871032565</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0007458545167356416</v>
+        <v>0.0007673354769988993</v>
       </c>
       <c r="C210">
-        <v>0.0006786957042631565</v>
+        <v>0.0008120132160148916</v>
       </c>
       <c r="D210">
-        <v>0.0006588305531393784</v>
+        <v>0.0006956746885139505</v>
       </c>
       <c r="E210">
-        <v>0.0006834760692304911</v>
+        <v>0.0007143860334831283</v>
       </c>
       <c r="F210">
-        <v>0.001209002239917043</v>
+        <v>0.001262650340377695</v>
       </c>
       <c r="G210">
-        <v>0.0007150301349857268</v>
+        <v>0.0008983993344489933</v>
       </c>
       <c r="H210">
-        <v>0.001651745226272361</v>
-      </c>
-      <c r="I210">
-        <v>0.0007511999934419275</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.001949185482263669</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0004687169114047054</v>
+        <v>0.0005868586872718969</v>
       </c>
       <c r="C211">
-        <v>0.0004305374580898935</v>
+        <v>0.0004725946121072581</v>
       </c>
       <c r="D211">
-        <v>0.0003834171973435059</v>
+        <v>0.0004399853768470672</v>
       </c>
       <c r="E211">
-        <v>0.0004424932766123533</v>
+        <v>0.0004857795868135531</v>
       </c>
       <c r="F211">
-        <v>0.001276751171891413</v>
+        <v>0.001353224548344097</v>
       </c>
       <c r="G211">
-        <v>0.0003896947436220266</v>
+        <v>0.0004625358611211501</v>
       </c>
       <c r="H211">
-        <v>0.0009289067945956816</v>
-      </c>
-      <c r="I211">
-        <v>0.0004742679772518718</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.001082742859230303</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0002702251131241701</v>
+        <v>0.0003156486886503854</v>
       </c>
       <c r="C212">
-        <v>0.0001847421965798533</v>
+        <v>0.0002256506018317168</v>
       </c>
       <c r="D212">
-        <v>0.0003083466643525</v>
+        <v>0.0003617480618127628</v>
       </c>
       <c r="E212">
-        <v>0.0002306419408941159</v>
+        <v>0.0002816745528758061</v>
       </c>
       <c r="F212">
-        <v>0.000834475129829485</v>
+        <v>0.0009213321024366864</v>
       </c>
       <c r="G212">
-        <v>0.0002538151896142447</v>
+        <v>0.0003001271749780454</v>
       </c>
       <c r="H212">
-        <v>0.000238482489303112</v>
-      </c>
-      <c r="I212">
-        <v>0.0002087043650643983</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.0002755331735594144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0005962738335739065</v>
+        <v>0.0006860368514229335</v>
       </c>
       <c r="C213">
-        <v>0.0003510147068089184</v>
+        <v>0.0004352964802500443</v>
       </c>
       <c r="D213">
-        <v>0.0003883105892515788</v>
+        <v>0.0004493890826723969</v>
       </c>
       <c r="E213">
-        <v>0.0003474374647236256</v>
+        <v>0.0004145675055178232</v>
       </c>
       <c r="F213">
-        <v>0.000921142591480348</v>
+        <v>0.001017744775555804</v>
       </c>
       <c r="G213">
-        <v>0.0004748303948734967</v>
+        <v>0.0005293731795735457</v>
       </c>
       <c r="H213">
-        <v>0.0004350913694558477</v>
-      </c>
-      <c r="I213">
-        <v>0.0003446829511468194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.0004919166334137047</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0002856501440212675</v>
+        <v>0.00031996859433681</v>
       </c>
       <c r="C214">
-        <v>0.0001847397256425227</v>
+        <v>0.0002111050505552725</v>
       </c>
       <c r="D214">
-        <v>0.0002332007657968225</v>
+        <v>0.0002956287748932625</v>
       </c>
       <c r="E214">
-        <v>0.0002364992467069316</v>
+        <v>0.0002926051657357052</v>
       </c>
       <c r="F214">
-        <v>0.0008248063806739366</v>
+        <v>0.0009189505333711606</v>
       </c>
       <c r="G214">
-        <v>0.0002486445244146066</v>
+        <v>0.0002788911791867802</v>
       </c>
       <c r="H214">
-        <v>0.000208837104524922</v>
-      </c>
-      <c r="I214">
-        <v>0.0002148553378754711</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.0002318754157246981</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0003056352263303281</v>
+        <v>0.0003666979727114631</v>
       </c>
       <c r="C215">
-        <v>0.0002907483137388297</v>
+        <v>0.0003494212775885301</v>
       </c>
       <c r="D215">
-        <v>0.0002854061814326796</v>
+        <v>0.0003439296651217798</v>
       </c>
       <c r="E215">
-        <v>0.0003415232381458827</v>
+        <v>0.0003942218811551585</v>
       </c>
       <c r="F215">
-        <v>0.001080963512570228</v>
+        <v>0.001165782492090698</v>
       </c>
       <c r="G215">
-        <v>0.000445958212627116</v>
+        <v>0.000517052761230484</v>
       </c>
       <c r="H215">
-        <v>0.0003137937485127592</v>
-      </c>
-      <c r="I215">
-        <v>0.0002941757620329915</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.0003798762115284302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0005220006902460275</v>
+        <v>0.0005934918186465241</v>
       </c>
       <c r="C216">
-        <v>0.0002867493871235269</v>
+        <v>0.0003637327933892247</v>
       </c>
       <c r="D216">
-        <v>0.0002809360602633962</v>
+        <v>0.0003567122332110898</v>
       </c>
       <c r="E216">
-        <v>0.0004342834847791643</v>
+        <v>0.0004985708664934174</v>
       </c>
       <c r="F216">
-        <v>0.001113530323077097</v>
+        <v>0.001208194668901171</v>
       </c>
       <c r="G216">
-        <v>0.0002905063749206323</v>
+        <v>0.0003542520222793081</v>
       </c>
       <c r="H216">
-        <v>0.0003941747007501953</v>
-      </c>
-      <c r="I216">
-        <v>0.0003000236947520531</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.0004623880143066519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0004014711702277806</v>
+        <v>0.0004297566179293244</v>
       </c>
       <c r="C217">
-        <v>0.0006462205692765475</v>
+        <v>0.0007708394820405582</v>
       </c>
       <c r="D217">
-        <v>0.000776075928918143</v>
+        <v>0.0007989139662122508</v>
       </c>
       <c r="E217">
-        <v>0.000589317498223753</v>
+        <v>0.0005966978304383727</v>
       </c>
       <c r="F217">
-        <v>0.0004909932678148542</v>
+        <v>0.0006111273195650283</v>
       </c>
       <c r="G217">
-        <v>0.0004218163629704379</v>
+        <v>0.0005355929427628938</v>
       </c>
       <c r="H217">
-        <v>0.0005255357422658754</v>
-      </c>
-      <c r="I217">
-        <v>0.0004702801782414941</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>0.0005502404284360743</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0002971581408793658</v>
+        <v>0.0003479630911112873</v>
       </c>
       <c r="C218">
-        <v>0.0002545049454487925</v>
+        <v>0.0003148691366337547</v>
       </c>
       <c r="D218">
-        <v>0.0004496459787160945</v>
+        <v>0.0004807386248743105</v>
       </c>
       <c r="E218">
-        <v>0.0005158509881798227</v>
+        <v>0.0005493817258110943</v>
       </c>
       <c r="F218">
-        <v>0.0002156425973783564</v>
+        <v>0.0002455582951157715</v>
       </c>
       <c r="G218">
-        <v>0.0005299558249591513</v>
+        <v>0.0006203975561330121</v>
       </c>
       <c r="H218">
-        <v>0.0002346005204794636</v>
-      </c>
-      <c r="I218">
-        <v>0.0002507183306764837</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.000293733018490971</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0004363693694567184</v>
+        <v>0.000503099389071873</v>
       </c>
       <c r="C219">
-        <v>0.0003248903629271593</v>
+        <v>0.000407892813214938</v>
       </c>
       <c r="D219">
-        <v>0.0004298298496990619</v>
+        <v>0.0004712687314965198</v>
       </c>
       <c r="E219">
-        <v>0.0005721505433204636</v>
+        <v>0.0006219881412106691</v>
       </c>
       <c r="F219">
-        <v>0.000455529117046262</v>
+        <v>0.0004983165381416199</v>
       </c>
       <c r="G219">
-        <v>0.000630116510303749</v>
+        <v>0.0007119272826130928</v>
       </c>
       <c r="H219">
-        <v>0.0003264431682668828</v>
-      </c>
-      <c r="I219">
-        <v>0.0003218482165133793</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.0004086748410536265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.000222531167150968</v>
+        <v>0.0002439048026784846</v>
       </c>
       <c r="C220">
-        <v>0.0001864103368077658</v>
+        <v>0.0001876944592552421</v>
       </c>
       <c r="D220">
-        <v>0.000454093686414046</v>
+        <v>0.0005416421537336729</v>
       </c>
       <c r="E220">
-        <v>0.0002488609726569095</v>
+        <v>0.0003096685048212647</v>
       </c>
       <c r="F220">
-        <v>0.0001616659473989809</v>
+        <v>0.0001704570937758969</v>
       </c>
       <c r="G220">
-        <v>0.000301578526056479</v>
+        <v>0.0002996647069602458</v>
       </c>
       <c r="H220">
-        <v>0.0002278345485014265</v>
-      </c>
-      <c r="I220">
-        <v>0.0002433552765904858</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>0.0002272751413298615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0001773430912932459</v>
+        <v>0.0001764399366380881</v>
       </c>
       <c r="C221">
-        <v>0.0001257494522409045</v>
+        <v>0.0001227935310238775</v>
       </c>
       <c r="D221">
-        <v>0.0001693692484915717</v>
+        <v>0.0001979656175013095</v>
       </c>
       <c r="E221">
-        <v>0.0001448951580696891</v>
+        <v>0.0001420535023354386</v>
       </c>
       <c r="F221">
-        <v>0.0001737087487975828</v>
+        <v>0.0002186646689897241</v>
       </c>
       <c r="G221">
-        <v>0.0004129470949835289</v>
+        <v>0.0004277868871039607</v>
       </c>
       <c r="H221">
-        <v>0.0001273977773824536</v>
-      </c>
-      <c r="I221">
-        <v>0.0002016870567613851</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.0001487480430659677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0004444816620260147</v>
+        <v>0.0005207183701191651</v>
       </c>
       <c r="C222">
-        <v>0.0004596290091152717</v>
+        <v>0.0004845924297894003</v>
       </c>
       <c r="D222">
-        <v>0.0007019915508780505</v>
+        <v>0.0006929517379878889</v>
       </c>
       <c r="E222">
-        <v>0.0008386501009670348</v>
+        <v>0.0008343374342059805</v>
       </c>
       <c r="F222">
-        <v>0.000533689168109417</v>
+        <v>0.0005281604256904345</v>
       </c>
       <c r="G222">
-        <v>0.0007758069480971218</v>
+        <v>0.0009442615760110618</v>
       </c>
       <c r="H222">
-        <v>0.0004725854030603554</v>
-      </c>
-      <c r="I222">
-        <v>0.0006486437204346523</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>0.0005383349753765766</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0001645235320058078</v>
+        <v>0.000192718637520089</v>
       </c>
       <c r="C223">
-        <v>0.0001529807662694279</v>
+        <v>0.0001885484065226219</v>
       </c>
       <c r="D223">
-        <v>0.0002040412208324563</v>
+        <v>0.0002155196776725772</v>
       </c>
       <c r="E223">
-        <v>0.0004111478979845061</v>
+        <v>0.0004347894005949073</v>
       </c>
       <c r="F223">
-        <v>0.0002449400942232802</v>
+        <v>0.0002542469757053194</v>
       </c>
       <c r="G223">
-        <v>0.0001610478670853225</v>
+        <v>0.0001924316721546843</v>
       </c>
       <c r="H223">
-        <v>0.0001499799114518944</v>
-      </c>
-      <c r="I223">
-        <v>0.0001776736357782335</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>0.000186354913886752</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.0004790312138874013</v>
+        <v>0.0004552880074050217</v>
       </c>
       <c r="C224">
-        <v>0.0002952189606032473</v>
+        <v>0.0002767661158922997</v>
       </c>
       <c r="D224">
-        <v>0.0002977501192411796</v>
+        <v>0.0003468646113776365</v>
       </c>
       <c r="E224">
-        <v>0.0003646778823537637</v>
+        <v>0.0004553053021616848</v>
       </c>
       <c r="F224">
-        <v>0.0002226722780235827</v>
+        <v>0.0002227833212910738</v>
       </c>
       <c r="G224">
-        <v>0.0003557538286184189</v>
+        <v>0.0003345944859332874</v>
       </c>
       <c r="H224">
-        <v>0.0002178672887120024</v>
-      </c>
-      <c r="I224">
-        <v>0.0003976202191711628</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>0.0002388109976680187</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0003333297604631501</v>
+        <v>0.000412962251827282</v>
       </c>
       <c r="C225">
-        <v>0.0002494033087151244</v>
+        <v>0.0002926642531411939</v>
       </c>
       <c r="D225">
-        <v>0.0003892542743167544</v>
+        <v>0.0004024281907327383</v>
       </c>
       <c r="E225">
-        <v>0.000444321387388997</v>
+        <v>0.0004568247091606256</v>
       </c>
       <c r="F225">
-        <v>0.0005407661009290912</v>
+        <v>0.000565890672725493</v>
       </c>
       <c r="G225">
-        <v>0.0002983439086292585</v>
+        <v>0.0003568777048203477</v>
       </c>
       <c r="H225">
-        <v>0.0003286347280707547</v>
-      </c>
-      <c r="I225">
-        <v>0.000303596250758946</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>0.0004079317399277235</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0003908222770452282</v>
+        <v>0.0004485023812896732</v>
       </c>
       <c r="C226">
-        <v>0.000280611865500814</v>
+        <v>0.0003382206054260276</v>
       </c>
       <c r="D226">
-        <v>0.0005787269766641907</v>
+        <v>0.0006316370804218486</v>
       </c>
       <c r="E226">
-        <v>0.0005516767987201231</v>
+        <v>0.0006032593626374286</v>
       </c>
       <c r="F226">
-        <v>0.0003305212902144558</v>
+        <v>0.0003891226006784368</v>
       </c>
       <c r="G226">
-        <v>0.0004710327809585646</v>
+        <v>0.0005371930835839495</v>
       </c>
       <c r="H226">
-        <v>0.0002930136917111948</v>
-      </c>
-      <c r="I226">
-        <v>0.0003065137371146743</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>0.0003405446383056414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0002803171704854865</v>
+        <v>0.0003506784674092935</v>
       </c>
       <c r="C227">
-        <v>0.0002632401810756576</v>
+        <v>0.0003284538122476227</v>
       </c>
       <c r="D227">
-        <v>0.0005389999414101846</v>
+        <v>0.0005808438897859611</v>
       </c>
       <c r="E227">
-        <v>0.0002793339527487227</v>
+        <v>0.0003386650423873006</v>
       </c>
       <c r="F227">
-        <v>0.0008413823382297602</v>
+        <v>0.0009009319860860144</v>
       </c>
       <c r="G227">
-        <v>0.0004723313156750583</v>
+        <v>0.0005558338945100928</v>
       </c>
       <c r="H227">
-        <v>0.0002612516873630301</v>
-      </c>
-      <c r="I227">
-        <v>0.000271803406128957</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>0.0003285075445347641</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0001945208014913354</v>
+        <v>0.0002357554962929615</v>
       </c>
       <c r="C228">
-        <v>7.277230497041284E-05</v>
+        <v>7.517190421404736E-05</v>
       </c>
       <c r="D228">
-        <v>8.067576496477219E-05</v>
+        <v>7.699458948212093E-05</v>
       </c>
       <c r="E228">
-        <v>7.537173362223927E-05</v>
+        <v>7.296299444344122E-05</v>
       </c>
       <c r="F228">
-        <v>8.065029002497316E-05</v>
+        <v>7.564943689731265E-05</v>
       </c>
       <c r="G228">
-        <v>0.000101336695766887</v>
+        <v>0.0001162883618056339</v>
       </c>
       <c r="H228">
-        <v>0.0001213646855674943</v>
-      </c>
-      <c r="I228">
-        <v>0.0001151585300270273</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.000123665503516748</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.001553327032162722</v>
+        <v>0.001952012018353879</v>
       </c>
       <c r="C229">
-        <v>0.0008505608623642862</v>
+        <v>0.0008498633344475082</v>
       </c>
       <c r="D229">
-        <v>0.001224172694042251</v>
+        <v>0.001132833650119524</v>
       </c>
       <c r="E229">
-        <v>0.001387732916181193</v>
+        <v>0.001316939012000518</v>
       </c>
       <c r="F229">
-        <v>0.001064733831218111</v>
+        <v>0.0009754328515059311</v>
       </c>
       <c r="G229">
-        <v>0.0009550128892740802</v>
+        <v>0.00109523867240306</v>
       </c>
       <c r="H229">
-        <v>0.0008830049889313524</v>
-      </c>
-      <c r="I229">
-        <v>0.001483364925623797</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.0008486590039110754</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.000208162306498424</v>
+        <v>0.0002529921416903119</v>
       </c>
       <c r="C230">
-        <v>0.0002212301499773324</v>
+        <v>0.0002683491132319955</v>
       </c>
       <c r="D230">
-        <v>0.0004493335795291167</v>
+        <v>0.0004942156037043736</v>
       </c>
       <c r="E230">
-        <v>0.0002484219011947364</v>
+        <v>0.0002850267338800464</v>
       </c>
       <c r="F230">
-        <v>0.000713839432141142</v>
+        <v>0.0007953480222776551</v>
       </c>
       <c r="G230">
-        <v>0.0002930887561216609</v>
+        <v>0.0003519540121961706</v>
       </c>
       <c r="H230">
-        <v>0.0002903368703971403</v>
-      </c>
-      <c r="I230">
-        <v>0.0002402891024928698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.0003253760617840761</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.0004991524675737216</v>
+        <v>0.0006036763693156998</v>
       </c>
       <c r="C231">
-        <v>0.0003638026196065921</v>
+        <v>0.0004148243133598965</v>
       </c>
       <c r="D231">
-        <v>0.000484987937522659</v>
+        <v>0.0005155335934802314</v>
       </c>
       <c r="E231">
-        <v>0.0005557275078326097</v>
+        <v>0.0005888798576899813</v>
       </c>
       <c r="F231">
-        <v>0.0004212497440265907</v>
+        <v>0.0004487112722067414</v>
       </c>
       <c r="G231">
-        <v>0.0005820058178559589</v>
+        <v>0.0006849890097867646</v>
       </c>
       <c r="H231">
-        <v>0.0003522895971473864</v>
-      </c>
-      <c r="I231">
-        <v>0.0003511237375658119</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.0004358951584738005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.0005345008315403173</v>
+        <v>0.0006396627456886842</v>
       </c>
       <c r="C232">
-        <v>0.0004148596346493302</v>
+        <v>0.0004801969766968926</v>
       </c>
       <c r="D232">
-        <v>0.0004649059911219405</v>
+        <v>0.0005079687413917187</v>
       </c>
       <c r="E232">
-        <v>0.0005422825441640467</v>
+        <v>0.0005795200426912694</v>
       </c>
       <c r="F232">
-        <v>0.0009740633628184887</v>
+        <v>0.001034335760176048</v>
       </c>
       <c r="G232">
-        <v>0.0004482396983343159</v>
+        <v>0.0005491787419078304</v>
       </c>
       <c r="H232">
-        <v>0.0004377494024120051</v>
-      </c>
-      <c r="I232">
-        <v>0.0004086266065699988</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.0005363655926674267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.0002917588758061334</v>
+        <v>0.000338350013504979</v>
       </c>
       <c r="C233">
-        <v>0.0002745159730156339</v>
+        <v>0.0002954697086664295</v>
       </c>
       <c r="D233">
-        <v>0.0002952577789310976</v>
+        <v>0.0003700713006785474</v>
       </c>
       <c r="E233">
-        <v>0.0002556920594534798</v>
+        <v>0.0003049339191307172</v>
       </c>
       <c r="F233">
-        <v>0.0002266064782589373</v>
+        <v>0.000276907564709963</v>
       </c>
       <c r="G233">
-        <v>0.0008008739559138721</v>
+        <v>0.000834720282137205</v>
       </c>
       <c r="H233">
-        <v>0.0003871548781461644</v>
-      </c>
-      <c r="I233">
-        <v>0.0003073470875710868</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.0004040922671940659</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.0003300613281284043</v>
+        <v>0.0004073714043461662</v>
       </c>
       <c r="C234">
-        <v>0.0002479222781187952</v>
+        <v>0.0002495956317731105</v>
       </c>
       <c r="D234">
-        <v>0.0001779204917682335</v>
+        <v>0.0001880825738025141</v>
       </c>
       <c r="E234">
-        <v>0.0001804185300718499</v>
+        <v>0.0001864168295879205</v>
       </c>
       <c r="F234">
-        <v>0.0001830108112533794</v>
+        <v>0.0001811304768068068</v>
       </c>
       <c r="G234">
-        <v>0.0002309585594050785</v>
+        <v>0.0002283672992491714</v>
       </c>
       <c r="H234">
-        <v>0.0003207241974352381</v>
-      </c>
-      <c r="I234">
-        <v>0.0002327296465758145</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>0.0003852813843726015</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.0003359612560093234</v>
+        <v>0.0004100457940084378</v>
       </c>
       <c r="C235">
-        <v>0.0003317441053863843</v>
+        <v>0.0004006468229999262</v>
       </c>
       <c r="D235">
-        <v>0.000608094762783402</v>
+        <v>0.0006531060355967154</v>
       </c>
       <c r="E235">
-        <v>0.0003077672808655261</v>
+        <v>0.0003841513144303108</v>
       </c>
       <c r="F235">
-        <v>0.0009086488381019192</v>
+        <v>0.0009736502302796215</v>
       </c>
       <c r="G235">
-        <v>0.0004970176062319247</v>
+        <v>0.0005850272959888073</v>
       </c>
       <c r="H235">
-        <v>0.0003132098554745109</v>
-      </c>
-      <c r="I235">
-        <v>0.0003074996234575358</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>0.0003961613029878464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.0003766323042921421</v>
+        <v>0.000427474498393867</v>
       </c>
       <c r="C236">
-        <v>0.0001839599528310931</v>
+        <v>0.0002057894616866626</v>
       </c>
       <c r="D236">
-        <v>0.0003744875126978774</v>
+        <v>0.0004016466568673829</v>
       </c>
       <c r="E236">
-        <v>0.0002371391547520068</v>
+        <v>0.0002607561264957253</v>
       </c>
       <c r="F236">
-        <v>0.0002081802767631726</v>
+        <v>0.0002545713740398024</v>
       </c>
       <c r="G236">
-        <v>0.0002186571130373347</v>
+        <v>0.0002660148211099701</v>
       </c>
       <c r="H236">
-        <v>0.0001787181396944992</v>
-      </c>
-      <c r="I236">
-        <v>0.0001882127021523103</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>0.0002020721430534998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.0004049383027640609</v>
+        <v>0.0004921258364246868</v>
       </c>
       <c r="C237">
-        <v>0.0002361662740930021</v>
+        <v>0.0002719889593017427</v>
       </c>
       <c r="D237">
-        <v>0.0002818196624641074</v>
+        <v>0.0003198945683601205</v>
       </c>
       <c r="E237">
-        <v>0.0002353363593489998</v>
+        <v>0.0002785547459063946</v>
       </c>
       <c r="F237">
-        <v>0.001047685965972486</v>
+        <v>0.001136583219031259</v>
       </c>
       <c r="G237">
-        <v>0.000264775698671259</v>
+        <v>0.0003201300648937752</v>
       </c>
       <c r="H237">
-        <v>0.0002160391136524977</v>
-      </c>
-      <c r="I237">
-        <v>0.0002504029828984489</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>0.0002742553731443473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.0002931984745293</v>
+        <v>0.0003330881035972915</v>
       </c>
       <c r="C238">
-        <v>0.000216947095267544</v>
+        <v>0.0002641314385249035</v>
       </c>
       <c r="D238">
-        <v>0.0003979486024799657</v>
+        <v>0.0004241533129102781</v>
       </c>
       <c r="E238">
-        <v>0.0003236318909876226</v>
+        <v>0.0003443748436341533</v>
       </c>
       <c r="F238">
-        <v>0.0002165516480056893</v>
+        <v>0.0002390660485192602</v>
       </c>
       <c r="G238">
-        <v>0.000608763278856137</v>
+        <v>0.0007006291133222968</v>
       </c>
       <c r="H238">
-        <v>0.0003147899939736726</v>
-      </c>
-      <c r="I238">
-        <v>0.0002611257317479464</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>0.0003745965796760417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.000522939119247517</v>
+        <v>0.0005810920446165872</v>
       </c>
       <c r="C239">
-        <v>0.0008170075663449296</v>
+        <v>0.00100973702307737</v>
       </c>
       <c r="D239">
-        <v>0.0006270847481587982</v>
+        <v>0.0006759849478552459</v>
       </c>
       <c r="E239">
-        <v>0.0005410963445005133</v>
+        <v>0.000617157320411509</v>
       </c>
       <c r="F239">
-        <v>0.001619251250111747</v>
+        <v>0.001873292690785594</v>
       </c>
       <c r="G239">
-        <v>0.0005559553726962096</v>
+        <v>0.0006015537956933306</v>
       </c>
       <c r="H239">
-        <v>0.0009025588903072355</v>
-      </c>
-      <c r="I239">
-        <v>0.0006162344344209345</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>0.000951336257893683</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.0004964983959158336</v>
+        <v>0.0005975139960032209</v>
       </c>
       <c r="C240">
-        <v>0.0002831753033777813</v>
+        <v>0.0003083943647712896</v>
       </c>
       <c r="D240">
-        <v>0.0004194961000425081</v>
+        <v>0.000435097387692984</v>
       </c>
       <c r="E240">
-        <v>0.0003242710176381968</v>
+        <v>0.0003415884243224706</v>
       </c>
       <c r="F240">
-        <v>0.000536400058310553</v>
+        <v>0.0005607885296697733</v>
       </c>
       <c r="G240">
-        <v>0.0003182903145473579</v>
+        <v>0.000396901093789406</v>
       </c>
       <c r="H240">
-        <v>0.000277014153945169</v>
-      </c>
-      <c r="I240">
-        <v>0.0002987378747508604</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>0.0003517324498665078</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.000412284555419051</v>
+        <v>0.0004926450802139534</v>
       </c>
       <c r="C241">
-        <v>0.0002888685853710415</v>
+        <v>0.0003606263705693572</v>
       </c>
       <c r="D241">
-        <v>0.000614225696582612</v>
+        <v>0.0006579574679698123</v>
       </c>
       <c r="E241">
-        <v>0.0005040526108114387</v>
+        <v>0.000543688808562933</v>
       </c>
       <c r="F241">
-        <v>0.0003451626514893797</v>
+        <v>0.000395595690229143</v>
       </c>
       <c r="G241">
-        <v>0.0005670806134765718</v>
+        <v>0.0006531782424465686</v>
       </c>
       <c r="H241">
-        <v>0.0002892467275505858</v>
-      </c>
-      <c r="I241">
-        <v>0.0003001300023657957</v>
+        <v>0.0003509958164286851</v>
       </c>
     </row>
   </sheetData>
